--- a/data/Schott.xlsx
+++ b/data/Schott.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr codeName="DieseArbeitsmappe"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yamanaka\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{7B3CFB64-19CC-46FF-9C7E-BBFC750308F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DB00111-007F-4F3F-B419-A434B672A7A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" activeTab="3"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Datatable" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3762" uniqueCount="789">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3769" uniqueCount="796">
   <si>
     <t>788475.428</t>
   </si>
@@ -1676,6 +1676,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> dPas</t>
     </r>
@@ -1697,6 +1698,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> dPas</t>
     </r>
@@ -1730,6 +1732,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>K</t>
     </r>
@@ -1746,6 +1749,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>]</t>
     </r>
@@ -1770,6 +1774,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>K</t>
     </r>
@@ -1786,6 +1791,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>]</t>
     </r>
@@ -2988,25 +2994,73 @@
     <t>n_abs</t>
     <phoneticPr fontId="18"/>
   </si>
+  <si>
+    <r>
+      <t>C</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>ompute the relative index of the glass at the reference temperature from the dispersion formula</t>
+    </r>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <r>
+      <t>C</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>ompute the index of air at the reference temperature of the glass</t>
+    </r>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Compute the absolute index of the glass (relative to vacuum) at the reference temperature of the glass</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Compute the change in absolute index of refraction of the glass at the surface temperature</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Compute the index of air at the system temperature and pressure</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Compute the index of the glass relative to the air at the system temperature and pressure</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Scale the wavelength to air at the reference temperature of the glass and a pressure of 1.0 atmosphere</t>
+    <phoneticPr fontId="18"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="11">
-    <numFmt numFmtId="185" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
-    <numFmt numFmtId="194" formatCode="0.000"/>
-    <numFmt numFmtId="195" formatCode="0.0000000_)"/>
-    <numFmt numFmtId="196" formatCode="0.00000"/>
-    <numFmt numFmtId="197" formatCode="0.000000_)"/>
-    <numFmt numFmtId="198" formatCode="0.00000000E+00"/>
-    <numFmt numFmtId="199" formatCode="0.000000"/>
-    <numFmt numFmtId="201" formatCode="d/m/yy"/>
-    <numFmt numFmtId="205" formatCode="0.0"/>
-    <numFmt numFmtId="207" formatCode="0.0000"/>
-    <numFmt numFmtId="209" formatCode="dd/mm/yy;@"/>
+    <numFmt numFmtId="176" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="0.000"/>
+    <numFmt numFmtId="178" formatCode="0.0000000_)"/>
+    <numFmt numFmtId="179" formatCode="0.00000"/>
+    <numFmt numFmtId="180" formatCode="0.000000_)"/>
+    <numFmt numFmtId="181" formatCode="0.00000000E+00"/>
+    <numFmt numFmtId="182" formatCode="0.000000"/>
+    <numFmt numFmtId="183" formatCode="d/m/yy"/>
+    <numFmt numFmtId="184" formatCode="0.0"/>
+    <numFmt numFmtId="185" formatCode="0.0000"/>
+    <numFmt numFmtId="186" formatCode="dd/mm/yy;@"/>
   </numFmts>
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -3014,6 +3068,7 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -3128,6 +3183,12 @@
       <name val="Arial"/>
       <family val="3"/>
       <charset val="128"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="0" tint="-0.249977111117893"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="7">
@@ -3474,13 +3535,13 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="185" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="215">
+  <cellXfs count="218">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="194" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3489,13 +3550,13 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="194" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="201" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="183" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3521,12 +3582,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="201" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="201" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="201" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="183" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="183" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="183" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="199" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="182" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
@@ -3536,13 +3597,13 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="194" fontId="11" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="177" fontId="11" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="194" fontId="11" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="11" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="196" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3554,13 +3615,13 @@
     <xf numFmtId="11" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="194" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="198" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="196" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -3571,16 +3632,16 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="196" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="198" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="194" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3590,10 +3651,10 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="196" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="196" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3623,13 +3684,13 @@
     <xf numFmtId="2" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="194" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="194" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="194" fontId="8" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="8" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3647,10 +3708,10 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="197" fontId="8" fillId="2" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="180" fontId="8" fillId="2" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="197" fontId="10" fillId="2" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="180" fontId="10" fillId="2" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -3668,10 +3729,10 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="196" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="179" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="207" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="185" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3689,13 +3750,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="196" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="179" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="199" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="182" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="207" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="185" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
@@ -3705,10 +3766,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="196" fontId="8" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="8" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="196" fontId="8" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="8" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3720,10 +3781,10 @@
     <xf numFmtId="2" fontId="8" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="194" fontId="8" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="8" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="194" fontId="8" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="8" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -3738,16 +3799,16 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="197" fontId="8" fillId="2" borderId="12" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="180" fontId="8" fillId="2" borderId="12" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="197" fontId="10" fillId="2" borderId="12" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="180" fontId="10" fillId="2" borderId="12" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="201" fontId="8" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="183" fontId="8" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
@@ -3763,11 +3824,11 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="205" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="184" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="199" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="182" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3792,10 +3853,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="201" fontId="4" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="183" fontId="4" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="201" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="183" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -3812,13 +3873,13 @@
     <xf numFmtId="2" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="196" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="198" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="11" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3827,14 +3888,14 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="194" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="205" fontId="1" fillId="0" borderId="18" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="184" fontId="1" fillId="0" borderId="18" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
@@ -3849,10 +3910,10 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="185" fontId="5" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="185" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3865,8 +3926,8 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="194" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="194" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3884,7 +3945,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="209" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="186" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -3912,66 +3973,92 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="196" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="198" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="11" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="194" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="196" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="179" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="199" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="182" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="207" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="185" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="209" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="186" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="185" fontId="6" fillId="0" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="201" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="201" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="183" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="183" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="185" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="185" fontId="5" fillId="0" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="185" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="185" fontId="6" fillId="0" borderId="6" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="6" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="196" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="185" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="195" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="179" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
@@ -3983,16 +4070,7 @@
     <xf numFmtId="2" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="194" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
@@ -4013,25 +4091,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Standard_O2Kmini Sort 2003 Feb 13 Korr 17 Juli 2003 Daten" xfId="2"/>
+    <cellStyle name="Standard_O2Kmini Sort 2003 Feb 13 Korr 17 Juli 2003 Daten" xfId="2" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
     <cellStyle name="桁区切り [0.00]" xfId="1" builtinId="3"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -4052,14 +4116,14 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>295275</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2944845" cy="372538"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2" name="テキスト ボックス 1">
@@ -4101,6 +4165,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -4352,7 +4417,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -4367,7 +4432,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -4410,7 +4475,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -4423,7 +4488,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -4437,7 +4502,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -4455,7 +4520,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -4468,7 +4533,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -4482,7 +4547,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -4496,7 +4561,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -4510,7 +4575,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -4523,7 +4588,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -4567,7 +4632,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -4582,7 +4647,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -4595,7 +4660,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -4625,7 +4690,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -4638,7 +4703,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -4652,7 +4717,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -4670,7 +4735,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -4683,7 +4748,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -4697,7 +4762,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -4711,7 +4776,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -4725,7 +4790,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -4738,7 +4803,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -4770,7 +4835,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2" name="テキスト ボックス 1">
@@ -5116,10 +5181,10 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>130879</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>9173</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>11816</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>56798</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="4157227" cy="383823"/>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -5137,7 +5202,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="130879" y="8447617"/>
+              <a:off x="2424816" y="7994298"/>
               <a:ext cx="4157227" cy="383823"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -5165,6 +5230,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -5526,7 +5592,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="130879" y="8447617"/>
+              <a:off x="2424816" y="7994298"/>
               <a:ext cx="4157227" cy="383823"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -5554,6 +5620,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a:r>
                 <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0">
                   <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
@@ -5645,10 +5712,10 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>78318</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>141816</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>332318</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>78316</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="3337965" cy="362663"/>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -5666,7 +5733,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="4904318" y="8238066"/>
+              <a:off x="7571318" y="7857066"/>
               <a:ext cx="3337965" cy="362663"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -5694,6 +5761,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -6015,7 +6083,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="4904318" y="8238066"/>
+              <a:off x="7571318" y="7857066"/>
               <a:ext cx="3337965" cy="362663"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -6043,6 +6111,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a:r>
                 <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0">
                   <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
@@ -6103,10 +6172,10 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>612776</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>99483</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>582614</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>139171</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="4500206" cy="383823"/>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -6124,7 +6193,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="8592609" y="2004483"/>
+              <a:off x="11583989" y="139171"/>
               <a:ext cx="4500206" cy="383823"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -6152,6 +6221,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -6644,7 +6714,7 @@
                                 <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                               </a:rPr>
-                              <m:t>+2</m:t>
+                              <m:t>+</m:t>
                             </m:r>
                             <m:sSub>
                               <m:sSubPr>
@@ -6809,7 +6879,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="8592609" y="2004483"/>
+              <a:off x="11583989" y="139171"/>
               <a:ext cx="4500206" cy="383823"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -6837,6 +6907,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a:r>
                 <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0">
                   <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
@@ -6856,13 +6927,13 @@
                   <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                 </a:rPr>
-                <a:t>,𝑇)</a:t>
+                <a:t>,𝑇)=</a:t>
               </a:r>
               <a:r>
                 <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0">
                   <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                 </a:rPr>
-                <a:t>=(𝑛^2 (</a:t>
+                <a:t>(𝑛^2 (</a:t>
               </a:r>
               <a:r>
                 <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0">
@@ -6893,7 +6964,7 @@
                   <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                 </a:rPr>
-                <a:t>∙(𝐷_0 ∆𝑇+𝐷_1 ∆𝑇^2+𝐷_2 ∆𝑇^3+(𝐸_0 ∆𝑇+2𝐸_1 ∆𝑇^2)/(</a:t>
+                <a:t>∙(𝐷_0 ∆𝑇+𝐷_1 ∆𝑇^2+𝐷_2 ∆𝑇^3+(𝐸_0 ∆𝑇+𝐸_1 ∆𝑇^2)/(</a:t>
               </a:r>
               <a:r>
                 <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0">
@@ -6933,10 +7004,10 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>11641</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>148167</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>122767</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>124355</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2202270" cy="172227"/>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -6954,7 +7025,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="8605308" y="306917"/>
+              <a:off x="11735330" y="3299355"/>
               <a:ext cx="2202270" cy="172227"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -6982,6 +7053,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -7254,7 +7326,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="8605308" y="306917"/>
+              <a:off x="11735330" y="3299355"/>
               <a:ext cx="2202270" cy="172227"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -7282,6 +7354,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a:r>
                 <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0">
                   <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
@@ -7343,14 +7416,14 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>24</xdr:col>
+      <xdr:col>29</xdr:col>
       <xdr:colOff>598488</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>119592</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2274405" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="7" name="テキスト ボックス 6">
@@ -7392,6 +7465,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -7466,7 +7540,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -7479,7 +7553,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -7493,7 +7567,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -7509,7 +7583,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -7522,7 +7596,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -7534,7 +7608,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -7605,7 +7679,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -7630,7 +7704,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -7644,7 +7718,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -7660,7 +7734,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -7673,7 +7747,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -7685,7 +7759,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -7697,7 +7771,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -7713,7 +7787,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="7" name="テキスト ボックス 6">
@@ -7915,14 +7989,14 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>57414</xdr:colOff>
       <xdr:row>30</xdr:row>
       <xdr:rowOff>118269</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="782457" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="8" name="テキスト ボックス 7">
@@ -7964,6 +8038,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -7978,7 +8053,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -7991,7 +8066,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -8005,7 +8080,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -8021,7 +8096,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -8034,7 +8109,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -8046,7 +8121,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -8101,7 +8176,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -8113,7 +8188,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -8129,7 +8204,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="8" name="テキスト ボックス 7">
@@ -8241,14 +8316,14 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>34</xdr:col>
+      <xdr:col>39</xdr:col>
       <xdr:colOff>7470</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1504899" cy="357085"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="9" name="テキスト ボックス 8">
@@ -8290,6 +8365,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -8373,7 +8449,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -8386,7 +8462,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -8416,7 +8492,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -8429,7 +8505,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -8441,7 +8517,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -8453,7 +8529,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -8471,7 +8547,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -8484,7 +8560,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -8514,7 +8590,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -8527,7 +8603,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -8539,7 +8615,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -8551,7 +8627,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -8593,7 +8669,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="9" name="テキスト ボックス 8">
@@ -8831,16 +8907,16 @@
   </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>84667</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>105833</xdr:rowOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>116417</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>497417</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>116417</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>539750</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>87313</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -8854,9 +8930,9 @@
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr bwMode="auto">
-        <a:xfrm flipV="1">
-          <a:off x="4381500" y="1058333"/>
-          <a:ext cx="4095750" cy="1121834"/>
+        <a:xfrm>
+          <a:off x="7418917" y="2180167"/>
+          <a:ext cx="4122208" cy="129646"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -8880,16 +8956,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>70556</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>79375</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>529167</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>70556</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>508000</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>79375</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -8904,8 +8980,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm flipV="1">
-          <a:off x="2497667" y="9313333"/>
-          <a:ext cx="2278944" cy="169334"/>
+          <a:off x="5492750" y="8810625"/>
+          <a:ext cx="2254250" cy="158750"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -8929,14 +9005,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>31750</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>79375</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>560917</xdr:colOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>555625</xdr:colOff>
       <xdr:row>39</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
@@ -8953,8 +9029,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm flipV="1">
-          <a:off x="6170083" y="1238250"/>
-          <a:ext cx="2370667" cy="5048250"/>
+          <a:off x="9199563" y="4206875"/>
+          <a:ext cx="2357437" cy="2079625"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -8978,16 +9054,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
+      <xdr:col>21</xdr:col>
       <xdr:colOff>95250</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>116417</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
+      <xdr:col>29</xdr:col>
       <xdr:colOff>550333</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>105833</xdr:rowOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -9002,8 +9078,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm flipV="1">
-          <a:off x="10170583" y="1068917"/>
-          <a:ext cx="9048750" cy="306916"/>
+          <a:off x="13192125" y="1068917"/>
+          <a:ext cx="5344583" cy="1407583"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -9027,16 +9103,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>148167</xdr:colOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
+      <xdr:col>29</xdr:col>
       <xdr:colOff>529167</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>55563</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -9051,8 +9127,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm flipV="1">
-          <a:off x="10223500" y="1206500"/>
-          <a:ext cx="8974667" cy="2984500"/>
+          <a:off x="13192125" y="1206500"/>
+          <a:ext cx="5323417" cy="3135313"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -9076,13 +9152,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>27</xdr:col>
+      <xdr:col>32</xdr:col>
       <xdr:colOff>71967</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>74083</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>33</xdr:col>
+      <xdr:col>38</xdr:col>
       <xdr:colOff>571500</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>103716</xdr:rowOff>
@@ -9125,13 +9201,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>296334</xdr:colOff>
       <xdr:row>41</xdr:row>
       <xdr:rowOff>148166</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>306917</xdr:colOff>
       <xdr:row>48</xdr:row>
       <xdr:rowOff>105833</xdr:rowOff>
@@ -9174,16 +9250,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>222250</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>206375</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>33</xdr:col>
+      <xdr:col>38</xdr:col>
       <xdr:colOff>550333</xdr:colOff>
-      <xdr:row>61</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -9198,8 +9274,57 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm flipV="1">
-          <a:off x="6254750" y="1206500"/>
-          <a:ext cx="18092208" cy="8524875"/>
+          <a:off x="9255125" y="1206500"/>
+          <a:ext cx="14488583" cy="8223250"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>103187</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>87313</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="10" name="直線矢印コネクタ 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4AF6796F-E06D-4CE3-97AC-8A7B3994C430}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="7437437" y="2206625"/>
+          <a:ext cx="4135438" cy="1849438"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -9571,15 +9696,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Tabelle1"/>
   <dimension ref="A1:FK138"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="FE123" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="K5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="R138" sqref="R138"/>
+      <selection pane="bottomRight" activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.3"/>
@@ -9792,188 +9917,188 @@
       <c r="D3" s="113"/>
       <c r="E3" s="113"/>
       <c r="F3" s="112"/>
-      <c r="G3" s="198" t="s">
+      <c r="G3" s="202" t="s">
         <v>145</v>
       </c>
-      <c r="H3" s="195"/>
-      <c r="I3" s="195"/>
-      <c r="J3" s="195"/>
-      <c r="K3" s="195"/>
-      <c r="L3" s="196"/>
-      <c r="M3" s="198" t="s">
+      <c r="H3" s="203"/>
+      <c r="I3" s="203"/>
+      <c r="J3" s="203"/>
+      <c r="K3" s="203"/>
+      <c r="L3" s="204"/>
+      <c r="M3" s="202" t="s">
         <v>146</v>
       </c>
-      <c r="N3" s="195"/>
-      <c r="O3" s="195"/>
-      <c r="P3" s="195"/>
-      <c r="Q3" s="195"/>
-      <c r="R3" s="196"/>
-      <c r="S3" s="194" t="s">
+      <c r="N3" s="203"/>
+      <c r="O3" s="203"/>
+      <c r="P3" s="203"/>
+      <c r="Q3" s="203"/>
+      <c r="R3" s="204"/>
+      <c r="S3" s="208" t="s">
         <v>70</v>
       </c>
-      <c r="T3" s="195"/>
-      <c r="U3" s="196"/>
-      <c r="V3" s="194" t="s">
+      <c r="T3" s="203"/>
+      <c r="U3" s="204"/>
+      <c r="V3" s="208" t="s">
         <v>69</v>
       </c>
-      <c r="W3" s="195"/>
-      <c r="X3" s="196"/>
-      <c r="Y3" s="194" t="s">
+      <c r="W3" s="203"/>
+      <c r="X3" s="204"/>
+      <c r="Y3" s="208" t="s">
         <v>147</v>
       </c>
-      <c r="Z3" s="195"/>
-      <c r="AA3" s="196"/>
-      <c r="AB3" s="194" t="s">
+      <c r="Z3" s="203"/>
+      <c r="AA3" s="204"/>
+      <c r="AB3" s="208" t="s">
         <v>148</v>
       </c>
-      <c r="AC3" s="195"/>
-      <c r="AD3" s="196"/>
-      <c r="AE3" s="194" t="s">
+      <c r="AC3" s="203"/>
+      <c r="AD3" s="204"/>
+      <c r="AE3" s="208" t="s">
         <v>149</v>
       </c>
-      <c r="AF3" s="195"/>
-      <c r="AG3" s="196"/>
-      <c r="AH3" s="194" t="s">
+      <c r="AF3" s="203"/>
+      <c r="AG3" s="204"/>
+      <c r="AH3" s="208" t="s">
         <v>77</v>
       </c>
-      <c r="AI3" s="195"/>
-      <c r="AJ3" s="196"/>
+      <c r="AI3" s="203"/>
+      <c r="AJ3" s="204"/>
       <c r="AK3" s="114"/>
-      <c r="AL3" s="197" t="s">
+      <c r="AL3" s="209" t="s">
         <v>150</v>
       </c>
-      <c r="AM3" s="195"/>
-      <c r="AN3" s="195"/>
-      <c r="AO3" s="195"/>
-      <c r="AP3" s="195"/>
-      <c r="AQ3" s="195"/>
-      <c r="AR3" s="195"/>
-      <c r="AS3" s="195"/>
-      <c r="AT3" s="195"/>
-      <c r="AU3" s="195"/>
-      <c r="AV3" s="195"/>
-      <c r="AW3" s="195"/>
-      <c r="AX3" s="195"/>
-      <c r="AY3" s="195"/>
-      <c r="AZ3" s="195"/>
-      <c r="BA3" s="195"/>
-      <c r="BB3" s="195"/>
-      <c r="BC3" s="195"/>
-      <c r="BD3" s="195"/>
-      <c r="BE3" s="195"/>
-      <c r="BF3" s="195"/>
-      <c r="BG3" s="195"/>
-      <c r="BH3" s="195"/>
-      <c r="BI3" s="195"/>
-      <c r="BJ3" s="195"/>
-      <c r="BK3" s="195"/>
-      <c r="BL3" s="195"/>
-      <c r="BM3" s="195"/>
-      <c r="BN3" s="195"/>
-      <c r="BO3" s="196"/>
-      <c r="BP3" s="197" t="s">
+      <c r="AM3" s="203"/>
+      <c r="AN3" s="203"/>
+      <c r="AO3" s="203"/>
+      <c r="AP3" s="203"/>
+      <c r="AQ3" s="203"/>
+      <c r="AR3" s="203"/>
+      <c r="AS3" s="203"/>
+      <c r="AT3" s="203"/>
+      <c r="AU3" s="203"/>
+      <c r="AV3" s="203"/>
+      <c r="AW3" s="203"/>
+      <c r="AX3" s="203"/>
+      <c r="AY3" s="203"/>
+      <c r="AZ3" s="203"/>
+      <c r="BA3" s="203"/>
+      <c r="BB3" s="203"/>
+      <c r="BC3" s="203"/>
+      <c r="BD3" s="203"/>
+      <c r="BE3" s="203"/>
+      <c r="BF3" s="203"/>
+      <c r="BG3" s="203"/>
+      <c r="BH3" s="203"/>
+      <c r="BI3" s="203"/>
+      <c r="BJ3" s="203"/>
+      <c r="BK3" s="203"/>
+      <c r="BL3" s="203"/>
+      <c r="BM3" s="203"/>
+      <c r="BN3" s="203"/>
+      <c r="BO3" s="204"/>
+      <c r="BP3" s="209" t="s">
         <v>151</v>
       </c>
-      <c r="BQ3" s="195"/>
-      <c r="BR3" s="195"/>
-      <c r="BS3" s="195"/>
-      <c r="BT3" s="195"/>
-      <c r="BU3" s="195"/>
-      <c r="BV3" s="195"/>
-      <c r="BW3" s="195"/>
-      <c r="BX3" s="195"/>
-      <c r="BY3" s="195"/>
-      <c r="BZ3" s="195"/>
-      <c r="CA3" s="195"/>
-      <c r="CB3" s="195"/>
-      <c r="CC3" s="195"/>
-      <c r="CD3" s="195"/>
-      <c r="CE3" s="195"/>
-      <c r="CF3" s="195"/>
-      <c r="CG3" s="195"/>
-      <c r="CH3" s="195"/>
-      <c r="CI3" s="195"/>
-      <c r="CJ3" s="195"/>
-      <c r="CK3" s="195"/>
-      <c r="CL3" s="195"/>
-      <c r="CM3" s="195"/>
-      <c r="CN3" s="195"/>
-      <c r="CO3" s="195"/>
-      <c r="CP3" s="195"/>
-      <c r="CQ3" s="195"/>
-      <c r="CR3" s="195"/>
-      <c r="CS3" s="196"/>
+      <c r="BQ3" s="203"/>
+      <c r="BR3" s="203"/>
+      <c r="BS3" s="203"/>
+      <c r="BT3" s="203"/>
+      <c r="BU3" s="203"/>
+      <c r="BV3" s="203"/>
+      <c r="BW3" s="203"/>
+      <c r="BX3" s="203"/>
+      <c r="BY3" s="203"/>
+      <c r="BZ3" s="203"/>
+      <c r="CA3" s="203"/>
+      <c r="CB3" s="203"/>
+      <c r="CC3" s="203"/>
+      <c r="CD3" s="203"/>
+      <c r="CE3" s="203"/>
+      <c r="CF3" s="203"/>
+      <c r="CG3" s="203"/>
+      <c r="CH3" s="203"/>
+      <c r="CI3" s="203"/>
+      <c r="CJ3" s="203"/>
+      <c r="CK3" s="203"/>
+      <c r="CL3" s="203"/>
+      <c r="CM3" s="203"/>
+      <c r="CN3" s="203"/>
+      <c r="CO3" s="203"/>
+      <c r="CP3" s="203"/>
+      <c r="CQ3" s="203"/>
+      <c r="CR3" s="203"/>
+      <c r="CS3" s="204"/>
       <c r="CT3" s="115"/>
-      <c r="CU3" s="198" t="s">
+      <c r="CU3" s="202" t="s">
         <v>152</v>
       </c>
-      <c r="CV3" s="195"/>
-      <c r="CW3" s="195"/>
-      <c r="CX3" s="195"/>
-      <c r="CY3" s="196"/>
+      <c r="CV3" s="203"/>
+      <c r="CW3" s="203"/>
+      <c r="CX3" s="203"/>
+      <c r="CY3" s="204"/>
       <c r="CZ3" s="114"/>
-      <c r="DA3" s="198" t="s">
+      <c r="DA3" s="202" t="s">
         <v>153</v>
       </c>
-      <c r="DB3" s="195"/>
-      <c r="DC3" s="195"/>
-      <c r="DD3" s="195"/>
-      <c r="DE3" s="195"/>
-      <c r="DF3" s="195"/>
-      <c r="DG3" s="196"/>
-      <c r="DH3" s="198" t="s">
+      <c r="DB3" s="203"/>
+      <c r="DC3" s="203"/>
+      <c r="DD3" s="203"/>
+      <c r="DE3" s="203"/>
+      <c r="DF3" s="203"/>
+      <c r="DG3" s="204"/>
+      <c r="DH3" s="202" t="s">
         <v>154</v>
       </c>
-      <c r="DI3" s="199"/>
-      <c r="DJ3" s="199"/>
-      <c r="DK3" s="199"/>
+      <c r="DI3" s="210"/>
+      <c r="DJ3" s="210"/>
+      <c r="DK3" s="210"/>
       <c r="DL3" s="115"/>
-      <c r="DM3" s="191" t="s">
+      <c r="DM3" s="205" t="s">
         <v>9</v>
       </c>
-      <c r="DN3" s="192"/>
-      <c r="DO3" s="192"/>
-      <c r="DP3" s="192"/>
-      <c r="DQ3" s="192"/>
-      <c r="DR3" s="192"/>
-      <c r="DS3" s="192"/>
-      <c r="DT3" s="192"/>
-      <c r="DU3" s="192"/>
-      <c r="DV3" s="192"/>
-      <c r="DW3" s="192"/>
-      <c r="DX3" s="192"/>
-      <c r="DY3" s="192"/>
-      <c r="DZ3" s="192"/>
-      <c r="EA3" s="192"/>
-      <c r="EB3" s="192"/>
-      <c r="EC3" s="192"/>
-      <c r="ED3" s="192"/>
-      <c r="EE3" s="192"/>
-      <c r="EF3" s="192"/>
-      <c r="EG3" s="192"/>
-      <c r="EH3" s="192"/>
-      <c r="EI3" s="193"/>
-      <c r="EJ3" s="198" t="s">
+      <c r="DN3" s="206"/>
+      <c r="DO3" s="206"/>
+      <c r="DP3" s="206"/>
+      <c r="DQ3" s="206"/>
+      <c r="DR3" s="206"/>
+      <c r="DS3" s="206"/>
+      <c r="DT3" s="206"/>
+      <c r="DU3" s="206"/>
+      <c r="DV3" s="206"/>
+      <c r="DW3" s="206"/>
+      <c r="DX3" s="206"/>
+      <c r="DY3" s="206"/>
+      <c r="DZ3" s="206"/>
+      <c r="EA3" s="206"/>
+      <c r="EB3" s="206"/>
+      <c r="EC3" s="206"/>
+      <c r="ED3" s="206"/>
+      <c r="EE3" s="206"/>
+      <c r="EF3" s="206"/>
+      <c r="EG3" s="206"/>
+      <c r="EH3" s="206"/>
+      <c r="EI3" s="207"/>
+      <c r="EJ3" s="202" t="s">
         <v>10</v>
       </c>
-      <c r="EK3" s="195"/>
-      <c r="EL3" s="195"/>
-      <c r="EM3" s="195"/>
-      <c r="EN3" s="195"/>
-      <c r="EO3" s="195"/>
-      <c r="EP3" s="195"/>
-      <c r="EQ3" s="195"/>
-      <c r="ER3" s="195"/>
-      <c r="ES3" s="195"/>
-      <c r="ET3" s="195"/>
-      <c r="EU3" s="195"/>
-      <c r="EV3" s="195"/>
-      <c r="EW3" s="195"/>
-      <c r="EX3" s="195"/>
-      <c r="EY3" s="195"/>
-      <c r="EZ3" s="195"/>
-      <c r="FA3" s="195"/>
-      <c r="FB3" s="196"/>
+      <c r="EK3" s="203"/>
+      <c r="EL3" s="203"/>
+      <c r="EM3" s="203"/>
+      <c r="EN3" s="203"/>
+      <c r="EO3" s="203"/>
+      <c r="EP3" s="203"/>
+      <c r="EQ3" s="203"/>
+      <c r="ER3" s="203"/>
+      <c r="ES3" s="203"/>
+      <c r="ET3" s="203"/>
+      <c r="EU3" s="203"/>
+      <c r="EV3" s="203"/>
+      <c r="EW3" s="203"/>
+      <c r="EX3" s="203"/>
+      <c r="EY3" s="203"/>
+      <c r="EZ3" s="203"/>
+      <c r="FA3" s="203"/>
+      <c r="FB3" s="204"/>
       <c r="FC3" s="118"/>
       <c r="FD3" s="119"/>
       <c r="FE3" s="120"/>
@@ -75118,508 +75243,508 @@
       <c r="FI137" s="34"/>
       <c r="FJ137" s="34"/>
     </row>
-    <row r="138" spans="1:167" s="212" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A138" s="210">
+    <row r="138" spans="1:167" s="198" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A138" s="196">
         <v>1</v>
       </c>
-      <c r="B138" s="211">
+      <c r="B138" s="197">
         <v>2</v>
       </c>
-      <c r="C138" s="211">
+      <c r="C138" s="197">
         <v>3</v>
       </c>
-      <c r="D138" s="210">
+      <c r="D138" s="196">
         <v>4</v>
       </c>
-      <c r="E138" s="211">
+      <c r="E138" s="197">
         <v>5</v>
       </c>
-      <c r="F138" s="211">
+      <c r="F138" s="197">
         <v>6</v>
       </c>
-      <c r="G138" s="210">
+      <c r="G138" s="196">
         <v>7</v>
       </c>
-      <c r="H138" s="211">
+      <c r="H138" s="197">
         <v>8</v>
       </c>
-      <c r="I138" s="211">
+      <c r="I138" s="197">
         <v>9</v>
       </c>
-      <c r="J138" s="210">
+      <c r="J138" s="196">
         <v>10</v>
       </c>
-      <c r="K138" s="211">
+      <c r="K138" s="197">
         <v>11</v>
       </c>
-      <c r="L138" s="211">
+      <c r="L138" s="197">
         <v>12</v>
       </c>
-      <c r="M138" s="210">
+      <c r="M138" s="196">
         <v>13</v>
       </c>
-      <c r="N138" s="211">
+      <c r="N138" s="197">
         <v>14</v>
       </c>
-      <c r="O138" s="211">
+      <c r="O138" s="197">
         <v>15</v>
       </c>
-      <c r="P138" s="210">
+      <c r="P138" s="196">
         <v>16</v>
       </c>
-      <c r="Q138" s="211">
+      <c r="Q138" s="197">
         <v>17</v>
       </c>
-      <c r="R138" s="211">
+      <c r="R138" s="197">
         <v>18</v>
       </c>
-      <c r="S138" s="210">
+      <c r="S138" s="196">
         <v>19</v>
       </c>
-      <c r="T138" s="211">
+      <c r="T138" s="197">
         <v>20</v>
       </c>
-      <c r="U138" s="211">
+      <c r="U138" s="197">
         <v>21</v>
       </c>
-      <c r="V138" s="210">
+      <c r="V138" s="196">
         <v>22</v>
       </c>
-      <c r="W138" s="211">
+      <c r="W138" s="197">
         <v>23</v>
       </c>
-      <c r="X138" s="211">
+      <c r="X138" s="197">
         <v>24</v>
       </c>
-      <c r="Y138" s="210">
+      <c r="Y138" s="196">
         <v>25</v>
       </c>
-      <c r="Z138" s="211">
+      <c r="Z138" s="197">
         <v>26</v>
       </c>
-      <c r="AA138" s="211">
+      <c r="AA138" s="197">
         <v>27</v>
       </c>
-      <c r="AB138" s="210">
+      <c r="AB138" s="196">
         <v>28</v>
       </c>
-      <c r="AC138" s="211">
+      <c r="AC138" s="197">
         <v>29</v>
       </c>
-      <c r="AD138" s="211">
+      <c r="AD138" s="197">
         <v>30</v>
       </c>
-      <c r="AE138" s="210">
+      <c r="AE138" s="196">
         <v>31</v>
       </c>
-      <c r="AF138" s="211">
+      <c r="AF138" s="197">
         <v>32</v>
       </c>
-      <c r="AG138" s="211">
+      <c r="AG138" s="197">
         <v>33</v>
       </c>
-      <c r="AH138" s="210">
+      <c r="AH138" s="196">
         <v>34</v>
       </c>
-      <c r="AI138" s="211">
+      <c r="AI138" s="197">
         <v>35</v>
       </c>
-      <c r="AJ138" s="211">
+      <c r="AJ138" s="197">
         <v>36</v>
       </c>
-      <c r="AK138" s="210">
+      <c r="AK138" s="196">
         <v>37</v>
       </c>
-      <c r="AL138" s="211">
+      <c r="AL138" s="197">
         <v>38</v>
       </c>
-      <c r="AM138" s="211">
+      <c r="AM138" s="197">
         <v>39</v>
       </c>
-      <c r="AN138" s="210">
+      <c r="AN138" s="196">
         <v>40</v>
       </c>
-      <c r="AO138" s="211">
+      <c r="AO138" s="197">
         <v>41</v>
       </c>
-      <c r="AP138" s="211">
+      <c r="AP138" s="197">
         <v>42</v>
       </c>
-      <c r="AQ138" s="210">
+      <c r="AQ138" s="196">
         <v>43</v>
       </c>
-      <c r="AR138" s="211">
+      <c r="AR138" s="197">
         <v>44</v>
       </c>
-      <c r="AS138" s="211">
+      <c r="AS138" s="197">
         <v>45</v>
       </c>
-      <c r="AT138" s="210">
+      <c r="AT138" s="196">
         <v>46</v>
       </c>
-      <c r="AU138" s="211">
+      <c r="AU138" s="197">
         <v>47</v>
       </c>
-      <c r="AV138" s="211">
+      <c r="AV138" s="197">
         <v>48</v>
       </c>
-      <c r="AW138" s="210">
+      <c r="AW138" s="196">
         <v>49</v>
       </c>
-      <c r="AX138" s="211">
+      <c r="AX138" s="197">
         <v>50</v>
       </c>
-      <c r="AY138" s="211">
+      <c r="AY138" s="197">
         <v>51</v>
       </c>
-      <c r="AZ138" s="210">
+      <c r="AZ138" s="196">
         <v>52</v>
       </c>
-      <c r="BA138" s="211">
+      <c r="BA138" s="197">
         <v>53</v>
       </c>
-      <c r="BB138" s="211">
+      <c r="BB138" s="197">
         <v>54</v>
       </c>
-      <c r="BC138" s="210">
+      <c r="BC138" s="196">
         <v>55</v>
       </c>
-      <c r="BD138" s="211">
+      <c r="BD138" s="197">
         <v>56</v>
       </c>
-      <c r="BE138" s="211">
+      <c r="BE138" s="197">
         <v>57</v>
       </c>
-      <c r="BF138" s="210">
+      <c r="BF138" s="196">
         <v>58</v>
       </c>
-      <c r="BG138" s="211">
+      <c r="BG138" s="197">
         <v>59</v>
       </c>
-      <c r="BH138" s="211">
+      <c r="BH138" s="197">
         <v>60</v>
       </c>
-      <c r="BI138" s="210">
+      <c r="BI138" s="196">
         <v>61</v>
       </c>
-      <c r="BJ138" s="211">
+      <c r="BJ138" s="197">
         <v>62</v>
       </c>
-      <c r="BK138" s="211">
+      <c r="BK138" s="197">
         <v>63</v>
       </c>
-      <c r="BL138" s="210">
+      <c r="BL138" s="196">
         <v>64</v>
       </c>
-      <c r="BM138" s="211">
+      <c r="BM138" s="197">
         <v>65</v>
       </c>
-      <c r="BN138" s="211">
+      <c r="BN138" s="197">
         <v>66</v>
       </c>
-      <c r="BO138" s="210">
+      <c r="BO138" s="196">
         <v>67</v>
       </c>
-      <c r="BP138" s="211">
+      <c r="BP138" s="197">
         <v>68</v>
       </c>
-      <c r="BQ138" s="211">
+      <c r="BQ138" s="197">
         <v>69</v>
       </c>
-      <c r="BR138" s="210">
+      <c r="BR138" s="196">
         <v>70</v>
       </c>
-      <c r="BS138" s="211">
+      <c r="BS138" s="197">
         <v>71</v>
       </c>
-      <c r="BT138" s="211">
+      <c r="BT138" s="197">
         <v>72</v>
       </c>
-      <c r="BU138" s="210">
+      <c r="BU138" s="196">
         <v>73</v>
       </c>
-      <c r="BV138" s="211">
+      <c r="BV138" s="197">
         <v>74</v>
       </c>
-      <c r="BW138" s="211">
+      <c r="BW138" s="197">
         <v>75</v>
       </c>
-      <c r="BX138" s="210">
+      <c r="BX138" s="196">
         <v>76</v>
       </c>
-      <c r="BY138" s="211">
+      <c r="BY138" s="197">
         <v>77</v>
       </c>
-      <c r="BZ138" s="211">
+      <c r="BZ138" s="197">
         <v>78</v>
       </c>
-      <c r="CA138" s="210">
+      <c r="CA138" s="196">
         <v>79</v>
       </c>
-      <c r="CB138" s="211">
+      <c r="CB138" s="197">
         <v>80</v>
       </c>
-      <c r="CC138" s="211">
+      <c r="CC138" s="197">
         <v>81</v>
       </c>
-      <c r="CD138" s="210">
+      <c r="CD138" s="196">
         <v>82</v>
       </c>
-      <c r="CE138" s="211">
+      <c r="CE138" s="197">
         <v>83</v>
       </c>
-      <c r="CF138" s="211">
+      <c r="CF138" s="197">
         <v>84</v>
       </c>
-      <c r="CG138" s="210">
+      <c r="CG138" s="196">
         <v>85</v>
       </c>
-      <c r="CH138" s="211">
+      <c r="CH138" s="197">
         <v>86</v>
       </c>
-      <c r="CI138" s="211">
+      <c r="CI138" s="197">
         <v>87</v>
       </c>
-      <c r="CJ138" s="210">
+      <c r="CJ138" s="196">
         <v>88</v>
       </c>
-      <c r="CK138" s="211">
+      <c r="CK138" s="197">
         <v>89</v>
       </c>
-      <c r="CL138" s="211">
+      <c r="CL138" s="197">
         <v>90</v>
       </c>
-      <c r="CM138" s="210">
+      <c r="CM138" s="196">
         <v>91</v>
       </c>
-      <c r="CN138" s="211">
+      <c r="CN138" s="197">
         <v>92</v>
       </c>
-      <c r="CO138" s="211">
+      <c r="CO138" s="197">
         <v>93</v>
       </c>
-      <c r="CP138" s="210">
+      <c r="CP138" s="196">
         <v>94</v>
       </c>
-      <c r="CQ138" s="211">
+      <c r="CQ138" s="197">
         <v>95</v>
       </c>
-      <c r="CR138" s="211">
+      <c r="CR138" s="197">
         <v>96</v>
       </c>
-      <c r="CS138" s="210">
+      <c r="CS138" s="196">
         <v>97</v>
       </c>
-      <c r="CT138" s="211">
+      <c r="CT138" s="197">
         <v>98</v>
       </c>
-      <c r="CU138" s="211">
+      <c r="CU138" s="197">
         <v>99</v>
       </c>
-      <c r="CV138" s="210">
+      <c r="CV138" s="196">
         <v>100</v>
       </c>
-      <c r="CW138" s="211">
+      <c r="CW138" s="197">
         <v>101</v>
       </c>
-      <c r="CX138" s="211">
+      <c r="CX138" s="197">
         <v>102</v>
       </c>
-      <c r="CY138" s="210">
+      <c r="CY138" s="196">
         <v>103</v>
       </c>
-      <c r="CZ138" s="211">
+      <c r="CZ138" s="197">
         <v>104</v>
       </c>
-      <c r="DA138" s="211">
+      <c r="DA138" s="197">
         <v>105</v>
       </c>
-      <c r="DB138" s="210">
+      <c r="DB138" s="196">
         <v>106</v>
       </c>
-      <c r="DC138" s="211">
+      <c r="DC138" s="197">
         <v>107</v>
       </c>
-      <c r="DD138" s="211">
+      <c r="DD138" s="197">
         <v>108</v>
       </c>
-      <c r="DE138" s="210">
+      <c r="DE138" s="196">
         <v>109</v>
       </c>
-      <c r="DF138" s="211">
+      <c r="DF138" s="197">
         <v>110</v>
       </c>
-      <c r="DG138" s="211">
+      <c r="DG138" s="197">
         <v>111</v>
       </c>
-      <c r="DH138" s="210">
+      <c r="DH138" s="196">
         <v>112</v>
       </c>
-      <c r="DI138" s="211">
+      <c r="DI138" s="197">
         <v>113</v>
       </c>
-      <c r="DJ138" s="211">
+      <c r="DJ138" s="197">
         <v>114</v>
       </c>
-      <c r="DK138" s="210">
+      <c r="DK138" s="196">
         <v>115</v>
       </c>
-      <c r="DL138" s="211">
+      <c r="DL138" s="197">
         <v>116</v>
       </c>
-      <c r="DM138" s="211">
+      <c r="DM138" s="197">
         <v>117</v>
       </c>
-      <c r="DN138" s="210">
+      <c r="DN138" s="196">
         <v>118</v>
       </c>
-      <c r="DO138" s="211">
+      <c r="DO138" s="197">
         <v>119</v>
       </c>
-      <c r="DP138" s="211">
+      <c r="DP138" s="197">
         <v>120</v>
       </c>
-      <c r="DQ138" s="210">
+      <c r="DQ138" s="196">
         <v>121</v>
       </c>
-      <c r="DR138" s="211">
+      <c r="DR138" s="197">
         <v>122</v>
       </c>
-      <c r="DS138" s="211">
+      <c r="DS138" s="197">
         <v>123</v>
       </c>
-      <c r="DT138" s="210">
+      <c r="DT138" s="196">
         <v>124</v>
       </c>
-      <c r="DU138" s="211">
+      <c r="DU138" s="197">
         <v>125</v>
       </c>
-      <c r="DV138" s="211">
+      <c r="DV138" s="197">
         <v>126</v>
       </c>
-      <c r="DW138" s="210">
+      <c r="DW138" s="196">
         <v>127</v>
       </c>
-      <c r="DX138" s="211">
+      <c r="DX138" s="197">
         <v>128</v>
       </c>
-      <c r="DY138" s="211">
+      <c r="DY138" s="197">
         <v>129</v>
       </c>
-      <c r="DZ138" s="210">
+      <c r="DZ138" s="196">
         <v>130</v>
       </c>
-      <c r="EA138" s="211">
+      <c r="EA138" s="197">
         <v>131</v>
       </c>
-      <c r="EB138" s="211">
+      <c r="EB138" s="197">
         <v>132</v>
       </c>
-      <c r="EC138" s="210">
+      <c r="EC138" s="196">
         <v>133</v>
       </c>
-      <c r="ED138" s="211">
+      <c r="ED138" s="197">
         <v>134</v>
       </c>
-      <c r="EE138" s="211">
+      <c r="EE138" s="197">
         <v>135</v>
       </c>
-      <c r="EF138" s="210">
+      <c r="EF138" s="196">
         <v>136</v>
       </c>
-      <c r="EG138" s="211">
+      <c r="EG138" s="197">
         <v>137</v>
       </c>
-      <c r="EH138" s="211">
+      <c r="EH138" s="197">
         <v>138</v>
       </c>
-      <c r="EI138" s="210">
+      <c r="EI138" s="196">
         <v>139</v>
       </c>
-      <c r="EJ138" s="211">
+      <c r="EJ138" s="197">
         <v>140</v>
       </c>
-      <c r="EK138" s="211">
+      <c r="EK138" s="197">
         <v>141</v>
       </c>
-      <c r="EL138" s="210">
+      <c r="EL138" s="196">
         <v>142</v>
       </c>
-      <c r="EM138" s="211">
-        <v>143</v>
-      </c>
-      <c r="EN138" s="211">
+      <c r="EM138" s="197">
+        <v>143</v>
+      </c>
+      <c r="EN138" s="197">
         <v>144</v>
       </c>
-      <c r="EO138" s="210">
+      <c r="EO138" s="196">
         <v>145</v>
       </c>
-      <c r="EP138" s="211">
+      <c r="EP138" s="197">
         <v>146</v>
       </c>
-      <c r="EQ138" s="211">
+      <c r="EQ138" s="197">
         <v>147</v>
       </c>
-      <c r="ER138" s="210">
+      <c r="ER138" s="196">
         <v>148</v>
       </c>
-      <c r="ES138" s="211">
+      <c r="ES138" s="197">
         <v>149</v>
       </c>
-      <c r="ET138" s="211">
+      <c r="ET138" s="197">
         <v>150</v>
       </c>
-      <c r="EU138" s="210">
+      <c r="EU138" s="196">
         <v>151</v>
       </c>
-      <c r="EV138" s="211">
+      <c r="EV138" s="197">
         <v>152</v>
       </c>
-      <c r="EW138" s="211">
+      <c r="EW138" s="197">
         <v>153</v>
       </c>
-      <c r="EX138" s="210">
+      <c r="EX138" s="196">
         <v>154</v>
       </c>
-      <c r="EY138" s="211">
+      <c r="EY138" s="197">
         <v>155</v>
       </c>
-      <c r="EZ138" s="211">
+      <c r="EZ138" s="197">
         <v>156</v>
       </c>
-      <c r="FA138" s="210">
+      <c r="FA138" s="196">
         <v>157</v>
       </c>
-      <c r="FB138" s="211">
+      <c r="FB138" s="197">
         <v>158</v>
       </c>
-      <c r="FC138" s="211">
+      <c r="FC138" s="197">
         <v>159</v>
       </c>
-      <c r="FD138" s="210">
+      <c r="FD138" s="196">
         <v>160</v>
       </c>
-      <c r="FE138" s="211">
+      <c r="FE138" s="197">
         <v>161</v>
       </c>
-      <c r="FF138" s="211">
+      <c r="FF138" s="197">
         <v>162</v>
       </c>
-      <c r="FG138" s="210">
+      <c r="FG138" s="196">
         <v>163</v>
       </c>
-      <c r="FH138" s="211">
+      <c r="FH138" s="197">
         <v>164</v>
       </c>
-      <c r="FI138" s="211">
+      <c r="FI138" s="197">
         <v>165</v>
       </c>
-      <c r="FJ138" s="210">
+      <c r="FJ138" s="196">
         <v>166</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A4:FF137">
+  <autoFilter ref="A4:FF137" xr:uid="{00000000-0009-0000-0000-000000000000}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:FF137">
       <sortCondition ref="A4:A128"/>
     </sortState>
@@ -75634,12 +75759,12 @@
     <mergeCell ref="V3:X3"/>
     <mergeCell ref="Y3:AA3"/>
     <mergeCell ref="AB3:AD3"/>
+    <mergeCell ref="EJ3:FB3"/>
     <mergeCell ref="DM3:EI3"/>
     <mergeCell ref="AH3:AJ3"/>
     <mergeCell ref="AL3:BO3"/>
     <mergeCell ref="BP3:CS3"/>
     <mergeCell ref="CU3:CY3"/>
-    <mergeCell ref="EJ3:FB3"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.78740157499999996" right="0.78740157499999996" top="0.984251969" bottom="0.984251969" header="0.4921259845" footer="0.4921259845"/>
@@ -75649,7 +75774,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Tabelle2"/>
   <dimension ref="A2:J59"/>
   <sheetViews>
@@ -76076,7 +76201,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Tabelle3"/>
   <dimension ref="A2:E169"/>
   <sheetViews>
@@ -76114,52 +76239,52 @@
       <c r="E3" s="107"/>
     </row>
     <row r="4" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="198"/>
+      <c r="A4" s="202"/>
       <c r="B4" s="89" t="s">
         <v>155</v>
       </c>
       <c r="C4" s="104" t="s">
         <v>397</v>
       </c>
-      <c r="D4" s="200" t="s">
+      <c r="D4" s="211" t="s">
         <v>563</v>
       </c>
-      <c r="E4" s="201" t="s">
+      <c r="E4" s="212" t="s">
         <v>398</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="195"/>
+      <c r="A5" s="203"/>
       <c r="B5" s="90" t="s">
         <v>156</v>
       </c>
       <c r="C5" s="104" t="s">
         <v>399</v>
       </c>
-      <c r="D5" s="200"/>
-      <c r="E5" s="203"/>
+      <c r="D5" s="211"/>
+      <c r="E5" s="214"/>
     </row>
     <row r="6" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="195"/>
+      <c r="A6" s="203"/>
       <c r="B6" s="64" t="s">
         <v>157</v>
       </c>
       <c r="C6" s="104" t="s">
         <v>400</v>
       </c>
-      <c r="D6" s="200"/>
-      <c r="E6" s="203"/>
+      <c r="D6" s="211"/>
+      <c r="E6" s="214"/>
     </row>
     <row r="7" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="196"/>
+      <c r="A7" s="204"/>
       <c r="B7" s="64" t="s">
         <v>158</v>
       </c>
       <c r="C7" s="104" t="s">
         <v>401</v>
       </c>
-      <c r="D7" s="200"/>
-      <c r="E7" s="202"/>
+      <c r="D7" s="211"/>
+      <c r="E7" s="213"/>
     </row>
     <row r="8" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="12"/>
@@ -76177,131 +76302,131 @@
       </c>
     </row>
     <row r="9" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="198" t="s">
+      <c r="A9" s="202" t="s">
         <v>145</v>
       </c>
       <c r="B9" s="91" t="s">
         <v>160</v>
       </c>
-      <c r="C9" s="200" t="s">
+      <c r="C9" s="211" t="s">
         <v>404</v>
       </c>
-      <c r="D9" s="200" t="s">
+      <c r="D9" s="211" t="s">
         <v>563</v>
       </c>
-      <c r="E9" s="201" t="s">
+      <c r="E9" s="212" t="s">
         <v>405</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="195"/>
+      <c r="A10" s="203"/>
       <c r="B10" s="64" t="s">
         <v>161</v>
       </c>
-      <c r="C10" s="200"/>
-      <c r="D10" s="200"/>
-      <c r="E10" s="203"/>
+      <c r="C10" s="211"/>
+      <c r="D10" s="211"/>
+      <c r="E10" s="214"/>
     </row>
     <row r="11" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="195"/>
+      <c r="A11" s="203"/>
       <c r="B11" s="64" t="s">
         <v>162</v>
       </c>
-      <c r="C11" s="200"/>
-      <c r="D11" s="200"/>
-      <c r="E11" s="203"/>
+      <c r="C11" s="211"/>
+      <c r="D11" s="211"/>
+      <c r="E11" s="214"/>
     </row>
     <row r="12" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="195"/>
+      <c r="A12" s="203"/>
       <c r="B12" s="64" t="s">
         <v>163</v>
       </c>
-      <c r="C12" s="200"/>
-      <c r="D12" s="200"/>
-      <c r="E12" s="203"/>
+      <c r="C12" s="211"/>
+      <c r="D12" s="211"/>
+      <c r="E12" s="214"/>
     </row>
     <row r="13" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="195"/>
+      <c r="A13" s="203"/>
       <c r="B13" s="64" t="s">
         <v>164</v>
       </c>
-      <c r="C13" s="200"/>
-      <c r="D13" s="200"/>
-      <c r="E13" s="203"/>
+      <c r="C13" s="211"/>
+      <c r="D13" s="211"/>
+      <c r="E13" s="214"/>
     </row>
     <row r="14" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="196"/>
+      <c r="A14" s="204"/>
       <c r="B14" s="64" t="s">
         <v>165</v>
       </c>
-      <c r="C14" s="200"/>
-      <c r="D14" s="200"/>
-      <c r="E14" s="202"/>
+      <c r="C14" s="211"/>
+      <c r="D14" s="211"/>
+      <c r="E14" s="213"/>
     </row>
     <row r="15" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="198" t="s">
+      <c r="A15" s="202" t="s">
         <v>146</v>
       </c>
       <c r="B15" s="91" t="s">
         <v>166</v>
       </c>
-      <c r="C15" s="200" t="s">
+      <c r="C15" s="211" t="s">
         <v>406</v>
       </c>
-      <c r="D15" s="200" t="s">
+      <c r="D15" s="211" t="s">
         <v>563</v>
       </c>
-      <c r="E15" s="200" t="s">
+      <c r="E15" s="211" t="s">
         <v>407</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="195"/>
+      <c r="A16" s="203"/>
       <c r="B16" s="64" t="s">
         <v>167</v>
       </c>
-      <c r="C16" s="200"/>
-      <c r="D16" s="200"/>
-      <c r="E16" s="200"/>
+      <c r="C16" s="211"/>
+      <c r="D16" s="211"/>
+      <c r="E16" s="211"/>
     </row>
     <row r="17" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="195"/>
+      <c r="A17" s="203"/>
       <c r="B17" s="64" t="s">
         <v>168</v>
       </c>
-      <c r="C17" s="200"/>
-      <c r="D17" s="200"/>
-      <c r="E17" s="200"/>
+      <c r="C17" s="211"/>
+      <c r="D17" s="211"/>
+      <c r="E17" s="211"/>
     </row>
     <row r="18" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="195"/>
+      <c r="A18" s="203"/>
       <c r="B18" s="64" t="s">
         <v>169</v>
       </c>
-      <c r="C18" s="200"/>
-      <c r="D18" s="200"/>
-      <c r="E18" s="200"/>
+      <c r="C18" s="211"/>
+      <c r="D18" s="211"/>
+      <c r="E18" s="211"/>
     </row>
     <row r="19" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="195"/>
+      <c r="A19" s="203"/>
       <c r="B19" s="64" t="s">
         <v>170</v>
       </c>
-      <c r="C19" s="200"/>
-      <c r="D19" s="200"/>
-      <c r="E19" s="200"/>
+      <c r="C19" s="211"/>
+      <c r="D19" s="211"/>
+      <c r="E19" s="211"/>
     </row>
     <row r="20" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="196"/>
+      <c r="A20" s="204"/>
       <c r="B20" s="56" t="s">
         <v>306</v>
       </c>
-      <c r="C20" s="200"/>
-      <c r="D20" s="200"/>
-      <c r="E20" s="200"/>
+      <c r="C20" s="211"/>
+      <c r="D20" s="211"/>
+      <c r="E20" s="211"/>
     </row>
     <row r="21" spans="1:5" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="194" t="s">
+      <c r="A21" s="208" t="s">
         <v>70</v>
       </c>
       <c r="B21" s="92" t="s">
@@ -76310,37 +76435,37 @@
       <c r="C21" s="104" t="s">
         <v>408</v>
       </c>
-      <c r="D21" s="200" t="s">
+      <c r="D21" s="211" t="s">
         <v>563</v>
       </c>
-      <c r="E21" s="200" t="s">
+      <c r="E21" s="211" t="s">
         <v>407</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="195"/>
+      <c r="A22" s="203"/>
       <c r="B22" s="93" t="s">
         <v>67</v>
       </c>
       <c r="C22" s="104" t="s">
         <v>409</v>
       </c>
-      <c r="D22" s="200"/>
-      <c r="E22" s="200"/>
+      <c r="D22" s="211"/>
+      <c r="E22" s="211"/>
     </row>
     <row r="23" spans="1:5" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="196"/>
+      <c r="A23" s="204"/>
       <c r="B23" s="93" t="s">
         <v>68</v>
       </c>
       <c r="C23" s="104" t="s">
         <v>410</v>
       </c>
-      <c r="D23" s="200"/>
-      <c r="E23" s="200"/>
+      <c r="D23" s="211"/>
+      <c r="E23" s="211"/>
     </row>
     <row r="24" spans="1:5" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="194" t="s">
+      <c r="A24" s="208" t="s">
         <v>69</v>
       </c>
       <c r="B24" s="92" t="s">
@@ -76349,33 +76474,33 @@
       <c r="C24" s="104" t="s">
         <v>411</v>
       </c>
-      <c r="D24" s="200"/>
-      <c r="E24" s="200"/>
+      <c r="D24" s="211"/>
+      <c r="E24" s="211"/>
     </row>
     <row r="25" spans="1:5" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="195"/>
+      <c r="A25" s="203"/>
       <c r="B25" s="93" t="s">
         <v>67</v>
       </c>
       <c r="C25" s="104" t="s">
         <v>412</v>
       </c>
-      <c r="D25" s="200"/>
-      <c r="E25" s="200"/>
+      <c r="D25" s="211"/>
+      <c r="E25" s="211"/>
     </row>
     <row r="26" spans="1:5" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="196"/>
+      <c r="A26" s="204"/>
       <c r="B26" s="93" t="s">
         <v>68</v>
       </c>
       <c r="C26" s="104" t="s">
         <v>413</v>
       </c>
-      <c r="D26" s="200"/>
-      <c r="E26" s="200"/>
+      <c r="D26" s="211"/>
+      <c r="E26" s="211"/>
     </row>
     <row r="27" spans="1:5" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="194" t="s">
+      <c r="A27" s="208" t="s">
         <v>147</v>
       </c>
       <c r="B27" s="92" t="s">
@@ -76384,33 +76509,33 @@
       <c r="C27" s="104" t="s">
         <v>414</v>
       </c>
-      <c r="D27" s="200"/>
-      <c r="E27" s="200"/>
+      <c r="D27" s="211"/>
+      <c r="E27" s="211"/>
     </row>
     <row r="28" spans="1:5" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="195"/>
+      <c r="A28" s="203"/>
       <c r="B28" s="93" t="s">
         <v>67</v>
       </c>
       <c r="C28" s="104" t="s">
         <v>415</v>
       </c>
-      <c r="D28" s="200"/>
-      <c r="E28" s="200"/>
+      <c r="D28" s="211"/>
+      <c r="E28" s="211"/>
     </row>
     <row r="29" spans="1:5" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="196"/>
+      <c r="A29" s="204"/>
       <c r="B29" s="93" t="s">
         <v>68</v>
       </c>
       <c r="C29" s="104" t="s">
         <v>416</v>
       </c>
-      <c r="D29" s="200"/>
-      <c r="E29" s="200"/>
+      <c r="D29" s="211"/>
+      <c r="E29" s="211"/>
     </row>
     <row r="30" spans="1:5" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="194" t="s">
+      <c r="A30" s="208" t="s">
         <v>148</v>
       </c>
       <c r="B30" s="92" t="s">
@@ -76419,33 +76544,33 @@
       <c r="C30" s="104" t="s">
         <v>417</v>
       </c>
-      <c r="D30" s="200"/>
-      <c r="E30" s="200"/>
+      <c r="D30" s="211"/>
+      <c r="E30" s="211"/>
     </row>
     <row r="31" spans="1:5" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="195"/>
+      <c r="A31" s="203"/>
       <c r="B31" s="93" t="s">
         <v>67</v>
       </c>
       <c r="C31" s="104" t="s">
         <v>418</v>
       </c>
-      <c r="D31" s="200"/>
-      <c r="E31" s="200"/>
+      <c r="D31" s="211"/>
+      <c r="E31" s="211"/>
     </row>
     <row r="32" spans="1:5" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="196"/>
+      <c r="A32" s="204"/>
       <c r="B32" s="93" t="s">
         <v>68</v>
       </c>
       <c r="C32" s="104" t="s">
         <v>419</v>
       </c>
-      <c r="D32" s="200"/>
-      <c r="E32" s="200"/>
+      <c r="D32" s="211"/>
+      <c r="E32" s="211"/>
     </row>
     <row r="33" spans="1:5" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="194" t="s">
+      <c r="A33" s="208" t="s">
         <v>149</v>
       </c>
       <c r="B33" s="92" t="s">
@@ -76454,33 +76579,33 @@
       <c r="C33" s="104" t="s">
         <v>420</v>
       </c>
-      <c r="D33" s="200"/>
-      <c r="E33" s="200"/>
+      <c r="D33" s="211"/>
+      <c r="E33" s="211"/>
     </row>
     <row r="34" spans="1:5" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="195"/>
+      <c r="A34" s="203"/>
       <c r="B34" s="93" t="s">
         <v>67</v>
       </c>
       <c r="C34" s="104" t="s">
         <v>421</v>
       </c>
-      <c r="D34" s="200"/>
-      <c r="E34" s="200"/>
+      <c r="D34" s="211"/>
+      <c r="E34" s="211"/>
     </row>
     <row r="35" spans="1:5" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="196"/>
+      <c r="A35" s="204"/>
       <c r="B35" s="93" t="s">
         <v>71</v>
       </c>
       <c r="C35" s="104" t="s">
         <v>422</v>
       </c>
-      <c r="D35" s="200"/>
-      <c r="E35" s="200"/>
+      <c r="D35" s="211"/>
+      <c r="E35" s="211"/>
     </row>
     <row r="36" spans="1:5" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="194" t="s">
+      <c r="A36" s="208" t="s">
         <v>77</v>
       </c>
       <c r="B36" s="92" t="s">
@@ -76489,30 +76614,30 @@
       <c r="C36" s="104" t="s">
         <v>423</v>
       </c>
-      <c r="D36" s="200"/>
-      <c r="E36" s="200"/>
+      <c r="D36" s="211"/>
+      <c r="E36" s="211"/>
     </row>
     <row r="37" spans="1:5" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="195"/>
+      <c r="A37" s="203"/>
       <c r="B37" s="93" t="s">
         <v>67</v>
       </c>
       <c r="C37" s="104" t="s">
         <v>424</v>
       </c>
-      <c r="D37" s="200"/>
-      <c r="E37" s="200"/>
+      <c r="D37" s="211"/>
+      <c r="E37" s="211"/>
     </row>
     <row r="38" spans="1:5" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="196"/>
+      <c r="A38" s="204"/>
       <c r="B38" s="93" t="s">
         <v>68</v>
       </c>
       <c r="C38" s="104" t="s">
         <v>425</v>
       </c>
-      <c r="D38" s="200"/>
-      <c r="E38" s="200"/>
+      <c r="D38" s="211"/>
+      <c r="E38" s="211"/>
     </row>
     <row r="39" spans="1:5" ht="26.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="13"/>
@@ -76530,7 +76655,7 @@
       </c>
     </row>
     <row r="40" spans="1:5" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="197" t="s">
+      <c r="A40" s="209" t="s">
         <v>150</v>
       </c>
       <c r="B40" s="94" t="s">
@@ -76539,332 +76664,332 @@
       <c r="C40" s="105" t="s">
         <v>428</v>
       </c>
-      <c r="D40" s="204" t="s">
+      <c r="D40" s="215" t="s">
         <v>564</v>
       </c>
-      <c r="E40" s="201"/>
+      <c r="E40" s="212"/>
     </row>
     <row r="41" spans="1:5" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="195"/>
+      <c r="A41" s="203"/>
       <c r="B41" s="95" t="s">
         <v>172</v>
       </c>
       <c r="C41" s="105" t="s">
         <v>429</v>
       </c>
-      <c r="D41" s="204"/>
-      <c r="E41" s="203"/>
+      <c r="D41" s="215"/>
+      <c r="E41" s="214"/>
     </row>
     <row r="42" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="195"/>
+      <c r="A42" s="203"/>
       <c r="B42" s="95" t="s">
         <v>173</v>
       </c>
       <c r="C42" s="105" t="s">
         <v>430</v>
       </c>
-      <c r="D42" s="204"/>
-      <c r="E42" s="203"/>
+      <c r="D42" s="215"/>
+      <c r="E42" s="214"/>
     </row>
     <row r="43" spans="1:5" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="195"/>
+      <c r="A43" s="203"/>
       <c r="B43" s="95" t="s">
         <v>174</v>
       </c>
       <c r="C43" s="105" t="s">
         <v>431</v>
       </c>
-      <c r="D43" s="204"/>
-      <c r="E43" s="203"/>
+      <c r="D43" s="215"/>
+      <c r="E43" s="214"/>
     </row>
     <row r="44" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="195"/>
+      <c r="A44" s="203"/>
       <c r="B44" s="95" t="s">
         <v>175</v>
       </c>
       <c r="C44" s="105" t="s">
         <v>432</v>
       </c>
-      <c r="D44" s="204"/>
-      <c r="E44" s="203"/>
+      <c r="D44" s="215"/>
+      <c r="E44" s="214"/>
     </row>
     <row r="45" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="195"/>
+      <c r="A45" s="203"/>
       <c r="B45" s="95" t="s">
         <v>176</v>
       </c>
       <c r="C45" s="105" t="s">
         <v>433</v>
       </c>
-      <c r="D45" s="204"/>
-      <c r="E45" s="203"/>
+      <c r="D45" s="215"/>
+      <c r="E45" s="214"/>
     </row>
     <row r="46" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="195"/>
+      <c r="A46" s="203"/>
       <c r="B46" s="95" t="s">
         <v>177</v>
       </c>
       <c r="C46" s="105" t="s">
         <v>434</v>
       </c>
-      <c r="D46" s="204"/>
-      <c r="E46" s="203"/>
+      <c r="D46" s="215"/>
+      <c r="E46" s="214"/>
     </row>
     <row r="47" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="195"/>
+      <c r="A47" s="203"/>
       <c r="B47" s="95" t="s">
         <v>178</v>
       </c>
       <c r="C47" s="105" t="s">
         <v>435</v>
       </c>
-      <c r="D47" s="204"/>
-      <c r="E47" s="203"/>
+      <c r="D47" s="215"/>
+      <c r="E47" s="214"/>
     </row>
     <row r="48" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="195"/>
+      <c r="A48" s="203"/>
       <c r="B48" s="95" t="s">
         <v>179</v>
       </c>
       <c r="C48" s="105" t="s">
         <v>436</v>
       </c>
-      <c r="D48" s="204"/>
-      <c r="E48" s="203"/>
+      <c r="D48" s="215"/>
+      <c r="E48" s="214"/>
     </row>
     <row r="49" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="195"/>
+      <c r="A49" s="203"/>
       <c r="B49" s="95" t="s">
         <v>180</v>
       </c>
       <c r="C49" s="105" t="s">
         <v>437</v>
       </c>
-      <c r="D49" s="204"/>
-      <c r="E49" s="203"/>
+      <c r="D49" s="215"/>
+      <c r="E49" s="214"/>
     </row>
     <row r="50" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="195"/>
+      <c r="A50" s="203"/>
       <c r="B50" s="95" t="s">
         <v>181</v>
       </c>
       <c r="C50" s="105" t="s">
         <v>438</v>
       </c>
-      <c r="D50" s="204"/>
-      <c r="E50" s="203"/>
+      <c r="D50" s="215"/>
+      <c r="E50" s="214"/>
     </row>
     <row r="51" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="195"/>
+      <c r="A51" s="203"/>
       <c r="B51" s="95" t="s">
         <v>182</v>
       </c>
       <c r="C51" s="105" t="s">
         <v>439</v>
       </c>
-      <c r="D51" s="204"/>
-      <c r="E51" s="203"/>
+      <c r="D51" s="215"/>
+      <c r="E51" s="214"/>
     </row>
     <row r="52" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="195"/>
+      <c r="A52" s="203"/>
       <c r="B52" s="95" t="s">
         <v>183</v>
       </c>
       <c r="C52" s="105" t="s">
         <v>440</v>
       </c>
-      <c r="D52" s="204"/>
-      <c r="E52" s="203"/>
+      <c r="D52" s="215"/>
+      <c r="E52" s="214"/>
     </row>
     <row r="53" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="195"/>
+      <c r="A53" s="203"/>
       <c r="B53" s="95" t="s">
         <v>184</v>
       </c>
       <c r="C53" s="105" t="s">
         <v>441</v>
       </c>
-      <c r="D53" s="204"/>
-      <c r="E53" s="203"/>
+      <c r="D53" s="215"/>
+      <c r="E53" s="214"/>
     </row>
     <row r="54" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="195"/>
+      <c r="A54" s="203"/>
       <c r="B54" s="95" t="s">
         <v>185</v>
       </c>
       <c r="C54" s="105" t="s">
         <v>442</v>
       </c>
-      <c r="D54" s="204"/>
-      <c r="E54" s="203"/>
+      <c r="D54" s="215"/>
+      <c r="E54" s="214"/>
     </row>
     <row r="55" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="195"/>
+      <c r="A55" s="203"/>
       <c r="B55" s="95" t="s">
         <v>186</v>
       </c>
       <c r="C55" s="105" t="s">
         <v>443</v>
       </c>
-      <c r="D55" s="204"/>
-      <c r="E55" s="203"/>
+      <c r="D55" s="215"/>
+      <c r="E55" s="214"/>
     </row>
     <row r="56" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="195"/>
+      <c r="A56" s="203"/>
       <c r="B56" s="95" t="s">
         <v>187</v>
       </c>
       <c r="C56" s="105" t="s">
         <v>444</v>
       </c>
-      <c r="D56" s="204"/>
-      <c r="E56" s="203"/>
+      <c r="D56" s="215"/>
+      <c r="E56" s="214"/>
     </row>
     <row r="57" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="195"/>
+      <c r="A57" s="203"/>
       <c r="B57" s="95" t="s">
         <v>188</v>
       </c>
       <c r="C57" s="105" t="s">
         <v>445</v>
       </c>
-      <c r="D57" s="204"/>
-      <c r="E57" s="203"/>
+      <c r="D57" s="215"/>
+      <c r="E57" s="214"/>
     </row>
     <row r="58" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="195"/>
+      <c r="A58" s="203"/>
       <c r="B58" s="95" t="s">
         <v>189</v>
       </c>
       <c r="C58" s="105" t="s">
         <v>446</v>
       </c>
-      <c r="D58" s="204"/>
-      <c r="E58" s="203"/>
+      <c r="D58" s="215"/>
+      <c r="E58" s="214"/>
     </row>
     <row r="59" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="195"/>
+      <c r="A59" s="203"/>
       <c r="B59" s="95" t="s">
         <v>190</v>
       </c>
       <c r="C59" s="105" t="s">
         <v>447</v>
       </c>
-      <c r="D59" s="204"/>
-      <c r="E59" s="203"/>
+      <c r="D59" s="215"/>
+      <c r="E59" s="214"/>
     </row>
     <row r="60" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="195"/>
+      <c r="A60" s="203"/>
       <c r="B60" s="95" t="s">
         <v>191</v>
       </c>
       <c r="C60" s="105" t="s">
         <v>448</v>
       </c>
-      <c r="D60" s="204"/>
-      <c r="E60" s="203"/>
+      <c r="D60" s="215"/>
+      <c r="E60" s="214"/>
     </row>
     <row r="61" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="195"/>
+      <c r="A61" s="203"/>
       <c r="B61" s="95" t="s">
         <v>192</v>
       </c>
       <c r="C61" s="105" t="s">
         <v>449</v>
       </c>
-      <c r="D61" s="204"/>
-      <c r="E61" s="203"/>
+      <c r="D61" s="215"/>
+      <c r="E61" s="214"/>
     </row>
     <row r="62" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="195"/>
+      <c r="A62" s="203"/>
       <c r="B62" s="95" t="s">
         <v>193</v>
       </c>
       <c r="C62" s="105" t="s">
         <v>450</v>
       </c>
-      <c r="D62" s="204"/>
-      <c r="E62" s="203"/>
+      <c r="D62" s="215"/>
+      <c r="E62" s="214"/>
     </row>
     <row r="63" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="195"/>
+      <c r="A63" s="203"/>
       <c r="B63" s="95" t="s">
         <v>194</v>
       </c>
       <c r="C63" s="105" t="s">
         <v>451</v>
       </c>
-      <c r="D63" s="204"/>
-      <c r="E63" s="203"/>
+      <c r="D63" s="215"/>
+      <c r="E63" s="214"/>
     </row>
     <row r="64" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="195"/>
+      <c r="A64" s="203"/>
       <c r="B64" s="95" t="s">
         <v>195</v>
       </c>
       <c r="C64" s="105" t="s">
         <v>452</v>
       </c>
-      <c r="D64" s="204"/>
-      <c r="E64" s="203"/>
+      <c r="D64" s="215"/>
+      <c r="E64" s="214"/>
     </row>
     <row r="65" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="195"/>
+      <c r="A65" s="203"/>
       <c r="B65" s="95" t="s">
         <v>196</v>
       </c>
       <c r="C65" s="105" t="s">
         <v>453</v>
       </c>
-      <c r="D65" s="204"/>
-      <c r="E65" s="203"/>
+      <c r="D65" s="215"/>
+      <c r="E65" s="214"/>
     </row>
     <row r="66" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="195"/>
+      <c r="A66" s="203"/>
       <c r="B66" s="95" t="s">
         <v>197</v>
       </c>
       <c r="C66" s="105" t="s">
         <v>454</v>
       </c>
-      <c r="D66" s="204"/>
-      <c r="E66" s="203"/>
+      <c r="D66" s="215"/>
+      <c r="E66" s="214"/>
     </row>
     <row r="67" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="195"/>
+      <c r="A67" s="203"/>
       <c r="B67" s="95" t="s">
         <v>198</v>
       </c>
       <c r="C67" s="105" t="s">
         <v>455</v>
       </c>
-      <c r="D67" s="204"/>
-      <c r="E67" s="203"/>
+      <c r="D67" s="215"/>
+      <c r="E67" s="214"/>
     </row>
     <row r="68" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="195"/>
+      <c r="A68" s="203"/>
       <c r="B68" s="95" t="s">
         <v>199</v>
       </c>
       <c r="C68" s="105" t="s">
         <v>456</v>
       </c>
-      <c r="D68" s="204"/>
-      <c r="E68" s="203"/>
+      <c r="D68" s="215"/>
+      <c r="E68" s="214"/>
     </row>
     <row r="69" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="196"/>
+      <c r="A69" s="204"/>
       <c r="B69" s="95" t="s">
         <v>200</v>
       </c>
       <c r="C69" s="105" t="s">
         <v>457</v>
       </c>
-      <c r="D69" s="204"/>
-      <c r="E69" s="203"/>
+      <c r="D69" s="215"/>
+      <c r="E69" s="214"/>
     </row>
     <row r="70" spans="1:5" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="197" t="s">
+      <c r="A70" s="209" t="s">
         <v>151</v>
       </c>
       <c r="B70" s="94" t="s">
@@ -76873,327 +76998,327 @@
       <c r="C70" s="105" t="s">
         <v>458</v>
       </c>
-      <c r="D70" s="204"/>
-      <c r="E70" s="203"/>
+      <c r="D70" s="215"/>
+      <c r="E70" s="214"/>
     </row>
     <row r="71" spans="1:5" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="195"/>
+      <c r="A71" s="203"/>
       <c r="B71" s="95" t="s">
         <v>202</v>
       </c>
       <c r="C71" s="105" t="s">
         <v>459</v>
       </c>
-      <c r="D71" s="204"/>
-      <c r="E71" s="203"/>
+      <c r="D71" s="215"/>
+      <c r="E71" s="214"/>
     </row>
     <row r="72" spans="1:5" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="195"/>
+      <c r="A72" s="203"/>
       <c r="B72" s="95" t="s">
         <v>203</v>
       </c>
       <c r="C72" s="105" t="s">
         <v>460</v>
       </c>
-      <c r="D72" s="204"/>
-      <c r="E72" s="203"/>
+      <c r="D72" s="215"/>
+      <c r="E72" s="214"/>
     </row>
     <row r="73" spans="1:5" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="195"/>
+      <c r="A73" s="203"/>
       <c r="B73" s="95" t="s">
         <v>204</v>
       </c>
       <c r="C73" s="105" t="s">
         <v>461</v>
       </c>
-      <c r="D73" s="204"/>
-      <c r="E73" s="203"/>
+      <c r="D73" s="215"/>
+      <c r="E73" s="214"/>
     </row>
     <row r="74" spans="1:5" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="195"/>
+      <c r="A74" s="203"/>
       <c r="B74" s="95" t="s">
         <v>205</v>
       </c>
       <c r="C74" s="105" t="s">
         <v>462</v>
       </c>
-      <c r="D74" s="204"/>
-      <c r="E74" s="203"/>
+      <c r="D74" s="215"/>
+      <c r="E74" s="214"/>
     </row>
     <row r="75" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="195"/>
+      <c r="A75" s="203"/>
       <c r="B75" s="95" t="s">
         <v>206</v>
       </c>
       <c r="C75" s="105" t="s">
         <v>463</v>
       </c>
-      <c r="D75" s="204"/>
-      <c r="E75" s="203"/>
+      <c r="D75" s="215"/>
+      <c r="E75" s="214"/>
     </row>
     <row r="76" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="195"/>
+      <c r="A76" s="203"/>
       <c r="B76" s="95" t="s">
         <v>207</v>
       </c>
       <c r="C76" s="105" t="s">
         <v>464</v>
       </c>
-      <c r="D76" s="204"/>
-      <c r="E76" s="203"/>
+      <c r="D76" s="215"/>
+      <c r="E76" s="214"/>
     </row>
     <row r="77" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="195"/>
+      <c r="A77" s="203"/>
       <c r="B77" s="95" t="s">
         <v>208</v>
       </c>
       <c r="C77" s="105" t="s">
         <v>465</v>
       </c>
-      <c r="D77" s="204"/>
-      <c r="E77" s="203"/>
+      <c r="D77" s="215"/>
+      <c r="E77" s="214"/>
     </row>
     <row r="78" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="195"/>
+      <c r="A78" s="203"/>
       <c r="B78" s="95" t="s">
         <v>209</v>
       </c>
       <c r="C78" s="105" t="s">
         <v>466</v>
       </c>
-      <c r="D78" s="204"/>
-      <c r="E78" s="203"/>
+      <c r="D78" s="215"/>
+      <c r="E78" s="214"/>
     </row>
     <row r="79" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="195"/>
+      <c r="A79" s="203"/>
       <c r="B79" s="95" t="s">
         <v>210</v>
       </c>
       <c r="C79" s="105" t="s">
         <v>467</v>
       </c>
-      <c r="D79" s="204"/>
-      <c r="E79" s="203"/>
+      <c r="D79" s="215"/>
+      <c r="E79" s="214"/>
     </row>
     <row r="80" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="195"/>
+      <c r="A80" s="203"/>
       <c r="B80" s="95" t="s">
         <v>211</v>
       </c>
       <c r="C80" s="105" t="s">
         <v>468</v>
       </c>
-      <c r="D80" s="204"/>
-      <c r="E80" s="203"/>
+      <c r="D80" s="215"/>
+      <c r="E80" s="214"/>
     </row>
     <row r="81" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="195"/>
+      <c r="A81" s="203"/>
       <c r="B81" s="95" t="s">
         <v>212</v>
       </c>
       <c r="C81" s="105" t="s">
         <v>469</v>
       </c>
-      <c r="D81" s="204"/>
-      <c r="E81" s="203"/>
+      <c r="D81" s="215"/>
+      <c r="E81" s="214"/>
     </row>
     <row r="82" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="195"/>
+      <c r="A82" s="203"/>
       <c r="B82" s="95" t="s">
         <v>213</v>
       </c>
       <c r="C82" s="105" t="s">
         <v>470</v>
       </c>
-      <c r="D82" s="204"/>
-      <c r="E82" s="203"/>
+      <c r="D82" s="215"/>
+      <c r="E82" s="214"/>
     </row>
     <row r="83" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="195"/>
+      <c r="A83" s="203"/>
       <c r="B83" s="95" t="s">
         <v>214</v>
       </c>
       <c r="C83" s="105" t="s">
         <v>471</v>
       </c>
-      <c r="D83" s="204"/>
-      <c r="E83" s="203"/>
+      <c r="D83" s="215"/>
+      <c r="E83" s="214"/>
     </row>
     <row r="84" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="195"/>
+      <c r="A84" s="203"/>
       <c r="B84" s="95" t="s">
         <v>215</v>
       </c>
       <c r="C84" s="105" t="s">
         <v>472</v>
       </c>
-      <c r="D84" s="204"/>
-      <c r="E84" s="203"/>
+      <c r="D84" s="215"/>
+      <c r="E84" s="214"/>
     </row>
     <row r="85" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="195"/>
+      <c r="A85" s="203"/>
       <c r="B85" s="95" t="s">
         <v>216</v>
       </c>
       <c r="C85" s="105" t="s">
         <v>473</v>
       </c>
-      <c r="D85" s="204"/>
-      <c r="E85" s="203"/>
+      <c r="D85" s="215"/>
+      <c r="E85" s="214"/>
     </row>
     <row r="86" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="195"/>
+      <c r="A86" s="203"/>
       <c r="B86" s="95" t="s">
         <v>217</v>
       </c>
       <c r="C86" s="105" t="s">
         <v>474</v>
       </c>
-      <c r="D86" s="204"/>
-      <c r="E86" s="203"/>
+      <c r="D86" s="215"/>
+      <c r="E86" s="214"/>
     </row>
     <row r="87" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="195"/>
+      <c r="A87" s="203"/>
       <c r="B87" s="95" t="s">
         <v>218</v>
       </c>
       <c r="C87" s="105" t="s">
         <v>475</v>
       </c>
-      <c r="D87" s="204"/>
-      <c r="E87" s="203"/>
+      <c r="D87" s="215"/>
+      <c r="E87" s="214"/>
     </row>
     <row r="88" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="195"/>
+      <c r="A88" s="203"/>
       <c r="B88" s="95" t="s">
         <v>219</v>
       </c>
       <c r="C88" s="105" t="s">
         <v>476</v>
       </c>
-      <c r="D88" s="204"/>
-      <c r="E88" s="203"/>
+      <c r="D88" s="215"/>
+      <c r="E88" s="214"/>
     </row>
     <row r="89" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="195"/>
+      <c r="A89" s="203"/>
       <c r="B89" s="95" t="s">
         <v>221</v>
       </c>
       <c r="C89" s="105" t="s">
         <v>477</v>
       </c>
-      <c r="D89" s="204"/>
-      <c r="E89" s="203"/>
+      <c r="D89" s="215"/>
+      <c r="E89" s="214"/>
     </row>
     <row r="90" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="195"/>
+      <c r="A90" s="203"/>
       <c r="B90" s="95" t="s">
         <v>222</v>
       </c>
       <c r="C90" s="105" t="s">
         <v>478</v>
       </c>
-      <c r="D90" s="204"/>
-      <c r="E90" s="203"/>
+      <c r="D90" s="215"/>
+      <c r="E90" s="214"/>
     </row>
     <row r="91" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="195"/>
+      <c r="A91" s="203"/>
       <c r="B91" s="95" t="s">
         <v>223</v>
       </c>
       <c r="C91" s="105" t="s">
         <v>479</v>
       </c>
-      <c r="D91" s="204"/>
-      <c r="E91" s="203"/>
+      <c r="D91" s="215"/>
+      <c r="E91" s="214"/>
     </row>
     <row r="92" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="195"/>
+      <c r="A92" s="203"/>
       <c r="B92" s="95" t="s">
         <v>224</v>
       </c>
       <c r="C92" s="105" t="s">
         <v>480</v>
       </c>
-      <c r="D92" s="204"/>
-      <c r="E92" s="203"/>
+      <c r="D92" s="215"/>
+      <c r="E92" s="214"/>
     </row>
     <row r="93" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="195"/>
+      <c r="A93" s="203"/>
       <c r="B93" s="95" t="s">
         <v>225</v>
       </c>
       <c r="C93" s="105" t="s">
         <v>481</v>
       </c>
-      <c r="D93" s="204"/>
-      <c r="E93" s="203"/>
+      <c r="D93" s="215"/>
+      <c r="E93" s="214"/>
     </row>
     <row r="94" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="195"/>
+      <c r="A94" s="203"/>
       <c r="B94" s="95" t="s">
         <v>226</v>
       </c>
       <c r="C94" s="105" t="s">
         <v>482</v>
       </c>
-      <c r="D94" s="204"/>
-      <c r="E94" s="203"/>
+      <c r="D94" s="215"/>
+      <c r="E94" s="214"/>
     </row>
     <row r="95" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A95" s="195"/>
+      <c r="A95" s="203"/>
       <c r="B95" s="95" t="s">
         <v>227</v>
       </c>
       <c r="C95" s="105" t="s">
         <v>483</v>
       </c>
-      <c r="D95" s="204"/>
-      <c r="E95" s="203"/>
+      <c r="D95" s="215"/>
+      <c r="E95" s="214"/>
     </row>
     <row r="96" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="195"/>
+      <c r="A96" s="203"/>
       <c r="B96" s="95" t="s">
         <v>228</v>
       </c>
       <c r="C96" s="105" t="s">
         <v>484</v>
       </c>
-      <c r="D96" s="204"/>
-      <c r="E96" s="203"/>
+      <c r="D96" s="215"/>
+      <c r="E96" s="214"/>
     </row>
     <row r="97" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="195"/>
+      <c r="A97" s="203"/>
       <c r="B97" s="95" t="s">
         <v>229</v>
       </c>
       <c r="C97" s="105" t="s">
         <v>485</v>
       </c>
-      <c r="D97" s="204"/>
-      <c r="E97" s="203"/>
+      <c r="D97" s="215"/>
+      <c r="E97" s="214"/>
     </row>
     <row r="98" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="195"/>
+      <c r="A98" s="203"/>
       <c r="B98" s="95" t="s">
         <v>230</v>
       </c>
       <c r="C98" s="105" t="s">
         <v>486</v>
       </c>
-      <c r="D98" s="204"/>
-      <c r="E98" s="203"/>
+      <c r="D98" s="215"/>
+      <c r="E98" s="214"/>
     </row>
     <row r="99" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A99" s="196"/>
+      <c r="A99" s="204"/>
       <c r="B99" s="95" t="s">
         <v>231</v>
       </c>
       <c r="C99" s="105" t="s">
         <v>487</v>
       </c>
-      <c r="D99" s="204"/>
-      <c r="E99" s="202"/>
+      <c r="D99" s="215"/>
+      <c r="E99" s="213"/>
     </row>
     <row r="100" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A100" s="12"/>
@@ -77209,7 +77334,7 @@
       <c r="E100" s="104"/>
     </row>
     <row r="101" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A101" s="198" t="s">
+      <c r="A101" s="202" t="s">
         <v>152</v>
       </c>
       <c r="B101" s="91" t="s">
@@ -77218,7 +77343,7 @@
       <c r="C101" s="105" t="s">
         <v>490</v>
       </c>
-      <c r="D101" s="204" t="s">
+      <c r="D101" s="215" t="s">
         <v>491</v>
       </c>
       <c r="E101" s="104" t="s">
@@ -77226,54 +77351,54 @@
       </c>
     </row>
     <row r="102" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A102" s="195"/>
+      <c r="A102" s="203"/>
       <c r="B102" s="64" t="s">
         <v>234</v>
       </c>
       <c r="C102" s="105" t="s">
         <v>493</v>
       </c>
-      <c r="D102" s="204"/>
+      <c r="D102" s="215"/>
       <c r="E102" s="104" t="s">
         <v>407</v>
       </c>
     </row>
     <row r="103" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A103" s="195"/>
+      <c r="A103" s="203"/>
       <c r="B103" s="64" t="s">
         <v>235</v>
       </c>
       <c r="C103" s="105" t="s">
         <v>494</v>
       </c>
-      <c r="D103" s="204"/>
+      <c r="D103" s="215"/>
       <c r="E103" s="104" t="s">
         <v>495</v>
       </c>
     </row>
     <row r="104" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A104" s="195"/>
+      <c r="A104" s="203"/>
       <c r="B104" s="64" t="s">
         <v>236</v>
       </c>
       <c r="C104" s="105" t="s">
         <v>496</v>
       </c>
-      <c r="D104" s="204"/>
-      <c r="E104" s="201" t="s">
+      <c r="D104" s="215"/>
+      <c r="E104" s="212" t="s">
         <v>497</v>
       </c>
     </row>
     <row r="105" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A105" s="196"/>
+      <c r="A105" s="204"/>
       <c r="B105" s="64" t="s">
         <v>237</v>
       </c>
       <c r="C105" s="105" t="s">
         <v>498</v>
       </c>
-      <c r="D105" s="204"/>
-      <c r="E105" s="202"/>
+      <c r="D105" s="215"/>
+      <c r="E105" s="213"/>
     </row>
     <row r="106" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A106" s="13"/>
@@ -77283,7 +77408,7 @@
       <c r="C106" s="105" t="s">
         <v>499</v>
       </c>
-      <c r="D106" s="204" t="s">
+      <c r="D106" s="215" t="s">
         <v>566</v>
       </c>
       <c r="E106" s="104" t="s">
@@ -77291,7 +77416,7 @@
       </c>
     </row>
     <row r="107" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A107" s="198" t="s">
+      <c r="A107" s="202" t="s">
         <v>153</v>
       </c>
       <c r="B107" s="91" t="s">
@@ -77300,85 +77425,85 @@
       <c r="C107" s="105" t="s">
         <v>501</v>
       </c>
-      <c r="D107" s="204"/>
-      <c r="E107" s="201" t="s">
+      <c r="D107" s="215"/>
+      <c r="E107" s="212" t="s">
         <v>502</v>
       </c>
     </row>
     <row r="108" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A108" s="195"/>
+      <c r="A108" s="203"/>
       <c r="B108" s="64" t="s">
         <v>240</v>
       </c>
       <c r="C108" s="105" t="s">
         <v>503</v>
       </c>
-      <c r="D108" s="204"/>
-      <c r="E108" s="203"/>
+      <c r="D108" s="215"/>
+      <c r="E108" s="214"/>
     </row>
     <row r="109" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A109" s="195"/>
+      <c r="A109" s="203"/>
       <c r="B109" s="64" t="s">
         <v>241</v>
       </c>
       <c r="C109" s="105" t="s">
         <v>504</v>
       </c>
-      <c r="D109" s="204"/>
-      <c r="E109" s="202"/>
+      <c r="D109" s="215"/>
+      <c r="E109" s="213"/>
     </row>
     <row r="110" spans="1:5" ht="26.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A110" s="195"/>
+      <c r="A110" s="203"/>
       <c r="B110" s="64" t="s">
         <v>242</v>
       </c>
       <c r="C110" s="105" t="s">
         <v>505</v>
       </c>
-      <c r="D110" s="204"/>
+      <c r="D110" s="215"/>
       <c r="E110" s="104" t="s">
         <v>506</v>
       </c>
     </row>
     <row r="111" spans="1:5" ht="39.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A111" s="195"/>
+      <c r="A111" s="203"/>
       <c r="B111" s="64" t="s">
         <v>243</v>
       </c>
       <c r="C111" s="105" t="s">
         <v>507</v>
       </c>
-      <c r="D111" s="204"/>
+      <c r="D111" s="215"/>
       <c r="E111" s="104" t="s">
         <v>508</v>
       </c>
     </row>
     <row r="112" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A112" s="195"/>
+      <c r="A112" s="203"/>
       <c r="B112" s="64" t="s">
         <v>313</v>
       </c>
       <c r="C112" s="105" t="s">
         <v>509</v>
       </c>
-      <c r="D112" s="204"/>
-      <c r="E112" s="201" t="s">
+      <c r="D112" s="215"/>
+      <c r="E112" s="212" t="s">
         <v>510</v>
       </c>
     </row>
     <row r="113" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A113" s="196"/>
+      <c r="A113" s="204"/>
       <c r="B113" s="64" t="s">
         <v>244</v>
       </c>
       <c r="C113" s="105" t="s">
         <v>511</v>
       </c>
-      <c r="D113" s="204"/>
-      <c r="E113" s="202"/>
+      <c r="D113" s="215"/>
+      <c r="E113" s="213"/>
     </row>
     <row r="114" spans="1:5" ht="26.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A114" s="198" t="s">
+      <c r="A114" s="202" t="s">
         <v>154</v>
       </c>
       <c r="B114" s="91" t="s">
@@ -77387,46 +77512,46 @@
       <c r="C114" s="105" t="s">
         <v>512</v>
       </c>
-      <c r="D114" s="204"/>
+      <c r="D114" s="215"/>
       <c r="E114" s="104" t="s">
         <v>492</v>
       </c>
     </row>
     <row r="115" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A115" s="199"/>
+      <c r="A115" s="210"/>
       <c r="B115" s="64" t="s">
         <v>246</v>
       </c>
       <c r="C115" s="105" t="s">
         <v>513</v>
       </c>
-      <c r="D115" s="204"/>
+      <c r="D115" s="215"/>
       <c r="E115" s="104" t="s">
         <v>492</v>
       </c>
     </row>
     <row r="116" spans="1:5" ht="26.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A116" s="199"/>
+      <c r="A116" s="210"/>
       <c r="B116" s="64" t="s">
         <v>247</v>
       </c>
       <c r="C116" s="105" t="s">
         <v>514</v>
       </c>
-      <c r="D116" s="200"/>
+      <c r="D116" s="211"/>
       <c r="E116" s="104" t="s">
         <v>407</v>
       </c>
     </row>
     <row r="117" spans="1:5" ht="26.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A117" s="199"/>
+      <c r="A117" s="210"/>
       <c r="B117" s="64" t="s">
         <v>248</v>
       </c>
       <c r="C117" s="105" t="s">
         <v>515</v>
       </c>
-      <c r="D117" s="200"/>
+      <c r="D117" s="211"/>
       <c r="E117" s="104" t="s">
         <v>495</v>
       </c>
@@ -77447,7 +77572,7 @@
       </c>
     </row>
     <row r="119" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A119" s="191" t="s">
+      <c r="A119" s="205" t="s">
         <v>9</v>
       </c>
       <c r="B119" s="96" t="s">
@@ -77456,259 +77581,259 @@
       <c r="C119" s="105" t="s">
         <v>516</v>
       </c>
-      <c r="D119" s="204" t="s">
+      <c r="D119" s="215" t="s">
         <v>563</v>
       </c>
-      <c r="E119" s="201" t="s">
+      <c r="E119" s="212" t="s">
         <v>398</v>
       </c>
     </row>
     <row r="120" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A120" s="192"/>
+      <c r="A120" s="206"/>
       <c r="B120" s="97" t="s">
         <v>251</v>
       </c>
       <c r="C120" s="105" t="s">
         <v>517</v>
       </c>
-      <c r="D120" s="204"/>
-      <c r="E120" s="203"/>
+      <c r="D120" s="215"/>
+      <c r="E120" s="214"/>
     </row>
     <row r="121" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A121" s="192"/>
+      <c r="A121" s="206"/>
       <c r="B121" s="97" t="s">
         <v>252</v>
       </c>
       <c r="C121" s="105" t="s">
         <v>518</v>
       </c>
-      <c r="D121" s="204"/>
-      <c r="E121" s="203"/>
+      <c r="D121" s="215"/>
+      <c r="E121" s="214"/>
     </row>
     <row r="122" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A122" s="192"/>
+      <c r="A122" s="206"/>
       <c r="B122" s="97" t="s">
         <v>253</v>
       </c>
       <c r="C122" s="105" t="s">
         <v>519</v>
       </c>
-      <c r="D122" s="204"/>
-      <c r="E122" s="203"/>
+      <c r="D122" s="215"/>
+      <c r="E122" s="214"/>
     </row>
     <row r="123" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A123" s="192"/>
+      <c r="A123" s="206"/>
       <c r="B123" s="97" t="s">
         <v>254</v>
       </c>
       <c r="C123" s="105" t="s">
         <v>520</v>
       </c>
-      <c r="D123" s="204"/>
-      <c r="E123" s="203"/>
+      <c r="D123" s="215"/>
+      <c r="E123" s="214"/>
     </row>
     <row r="124" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A124" s="192"/>
+      <c r="A124" s="206"/>
       <c r="B124" s="97" t="s">
         <v>255</v>
       </c>
       <c r="C124" s="105" t="s">
         <v>521</v>
       </c>
-      <c r="D124" s="204"/>
-      <c r="E124" s="203"/>
+      <c r="D124" s="215"/>
+      <c r="E124" s="214"/>
     </row>
     <row r="125" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A125" s="192"/>
+      <c r="A125" s="206"/>
       <c r="B125" s="97" t="s">
         <v>256</v>
       </c>
       <c r="C125" s="105" t="s">
         <v>522</v>
       </c>
-      <c r="D125" s="204"/>
-      <c r="E125" s="203"/>
+      <c r="D125" s="215"/>
+      <c r="E125" s="214"/>
     </row>
     <row r="126" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A126" s="192"/>
+      <c r="A126" s="206"/>
       <c r="B126" s="97" t="s">
         <v>257</v>
       </c>
       <c r="C126" s="105" t="s">
         <v>523</v>
       </c>
-      <c r="D126" s="204"/>
-      <c r="E126" s="203"/>
+      <c r="D126" s="215"/>
+      <c r="E126" s="214"/>
     </row>
     <row r="127" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A127" s="192"/>
+      <c r="A127" s="206"/>
       <c r="B127" s="97" t="s">
         <v>258</v>
       </c>
       <c r="C127" s="105" t="s">
         <v>524</v>
       </c>
-      <c r="D127" s="204"/>
-      <c r="E127" s="203"/>
+      <c r="D127" s="215"/>
+      <c r="E127" s="214"/>
     </row>
     <row r="128" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A128" s="192"/>
+      <c r="A128" s="206"/>
       <c r="B128" s="97" t="s">
         <v>259</v>
       </c>
       <c r="C128" s="105" t="s">
         <v>525</v>
       </c>
-      <c r="D128" s="204"/>
-      <c r="E128" s="203"/>
+      <c r="D128" s="215"/>
+      <c r="E128" s="214"/>
     </row>
     <row r="129" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A129" s="192"/>
+      <c r="A129" s="206"/>
       <c r="B129" s="97" t="s">
         <v>260</v>
       </c>
       <c r="C129" s="105" t="s">
         <v>526</v>
       </c>
-      <c r="D129" s="204"/>
-      <c r="E129" s="203"/>
+      <c r="D129" s="215"/>
+      <c r="E129" s="214"/>
     </row>
     <row r="130" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A130" s="192"/>
+      <c r="A130" s="206"/>
       <c r="B130" s="97" t="s">
         <v>261</v>
       </c>
       <c r="C130" s="105" t="s">
         <v>527</v>
       </c>
-      <c r="D130" s="204"/>
-      <c r="E130" s="203"/>
+      <c r="D130" s="215"/>
+      <c r="E130" s="214"/>
     </row>
     <row r="131" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A131" s="192"/>
+      <c r="A131" s="206"/>
       <c r="B131" s="97" t="s">
         <v>262</v>
       </c>
       <c r="C131" s="105" t="s">
         <v>528</v>
       </c>
-      <c r="D131" s="204"/>
-      <c r="E131" s="203"/>
+      <c r="D131" s="215"/>
+      <c r="E131" s="214"/>
     </row>
     <row r="132" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A132" s="192"/>
+      <c r="A132" s="206"/>
       <c r="B132" s="97" t="s">
         <v>263</v>
       </c>
       <c r="C132" s="105" t="s">
         <v>529</v>
       </c>
-      <c r="D132" s="204"/>
-      <c r="E132" s="203"/>
+      <c r="D132" s="215"/>
+      <c r="E132" s="214"/>
     </row>
     <row r="133" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A133" s="192"/>
+      <c r="A133" s="206"/>
       <c r="B133" s="97" t="s">
         <v>264</v>
       </c>
       <c r="C133" s="105" t="s">
         <v>530</v>
       </c>
-      <c r="D133" s="204"/>
-      <c r="E133" s="203"/>
+      <c r="D133" s="215"/>
+      <c r="E133" s="214"/>
     </row>
     <row r="134" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A134" s="192"/>
+      <c r="A134" s="206"/>
       <c r="B134" s="97" t="s">
         <v>265</v>
       </c>
       <c r="C134" s="105" t="s">
         <v>531</v>
       </c>
-      <c r="D134" s="204"/>
-      <c r="E134" s="203"/>
+      <c r="D134" s="215"/>
+      <c r="E134" s="214"/>
     </row>
     <row r="135" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A135" s="192"/>
+      <c r="A135" s="206"/>
       <c r="B135" s="97" t="s">
         <v>266</v>
       </c>
       <c r="C135" s="105" t="s">
         <v>532</v>
       </c>
-      <c r="D135" s="204"/>
-      <c r="E135" s="203"/>
+      <c r="D135" s="215"/>
+      <c r="E135" s="214"/>
     </row>
     <row r="136" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A136" s="192"/>
+      <c r="A136" s="206"/>
       <c r="B136" s="97" t="s">
         <v>267</v>
       </c>
       <c r="C136" s="105" t="s">
         <v>533</v>
       </c>
-      <c r="D136" s="204"/>
-      <c r="E136" s="203"/>
+      <c r="D136" s="215"/>
+      <c r="E136" s="214"/>
     </row>
     <row r="137" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A137" s="192"/>
+      <c r="A137" s="206"/>
       <c r="B137" s="97" t="s">
         <v>268</v>
       </c>
       <c r="C137" s="105" t="s">
         <v>534</v>
       </c>
-      <c r="D137" s="204"/>
-      <c r="E137" s="203"/>
+      <c r="D137" s="215"/>
+      <c r="E137" s="214"/>
     </row>
     <row r="138" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A138" s="192"/>
+      <c r="A138" s="206"/>
       <c r="B138" s="97" t="s">
         <v>269</v>
       </c>
       <c r="C138" s="105" t="s">
         <v>535</v>
       </c>
-      <c r="D138" s="204"/>
-      <c r="E138" s="203"/>
+      <c r="D138" s="215"/>
+      <c r="E138" s="214"/>
     </row>
     <row r="139" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A139" s="192"/>
+      <c r="A139" s="206"/>
       <c r="B139" s="97" t="s">
         <v>270</v>
       </c>
       <c r="C139" s="105" t="s">
         <v>536</v>
       </c>
-      <c r="D139" s="204"/>
-      <c r="E139" s="203"/>
+      <c r="D139" s="215"/>
+      <c r="E139" s="214"/>
     </row>
     <row r="140" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A140" s="192"/>
+      <c r="A140" s="206"/>
       <c r="B140" s="97" t="s">
         <v>271</v>
       </c>
       <c r="C140" s="105" t="s">
         <v>537</v>
       </c>
-      <c r="D140" s="204"/>
-      <c r="E140" s="202"/>
+      <c r="D140" s="215"/>
+      <c r="E140" s="213"/>
     </row>
     <row r="141" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A141" s="193"/>
+      <c r="A141" s="207"/>
       <c r="B141" s="97" t="s">
         <v>272</v>
       </c>
       <c r="C141" s="105" t="s">
         <v>538</v>
       </c>
-      <c r="D141" s="204"/>
-      <c r="E141" s="201" t="s">
+      <c r="D141" s="215"/>
+      <c r="E141" s="212" t="s">
         <v>427</v>
       </c>
     </row>
     <row r="142" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A142" s="198" t="s">
+      <c r="A142" s="202" t="s">
         <v>10</v>
       </c>
       <c r="B142" s="98" t="s">
@@ -77717,206 +77842,206 @@
       <c r="C142" s="105" t="s">
         <v>539</v>
       </c>
-      <c r="D142" s="204"/>
-      <c r="E142" s="203"/>
+      <c r="D142" s="215"/>
+      <c r="E142" s="214"/>
     </row>
     <row r="143" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A143" s="195"/>
+      <c r="A143" s="203"/>
       <c r="B143" s="98" t="s">
         <v>274</v>
       </c>
       <c r="C143" s="105" t="s">
         <v>540</v>
       </c>
-      <c r="D143" s="204"/>
-      <c r="E143" s="203"/>
+      <c r="D143" s="215"/>
+      <c r="E143" s="214"/>
     </row>
     <row r="144" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A144" s="195"/>
+      <c r="A144" s="203"/>
       <c r="B144" s="99" t="s">
         <v>275</v>
       </c>
       <c r="C144" s="105" t="s">
         <v>541</v>
       </c>
-      <c r="D144" s="204"/>
-      <c r="E144" s="203"/>
+      <c r="D144" s="215"/>
+      <c r="E144" s="214"/>
     </row>
     <row r="145" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A145" s="195"/>
+      <c r="A145" s="203"/>
       <c r="B145" s="99" t="s">
         <v>276</v>
       </c>
       <c r="C145" s="105" t="s">
         <v>542</v>
       </c>
-      <c r="D145" s="204"/>
-      <c r="E145" s="203"/>
+      <c r="D145" s="215"/>
+      <c r="E145" s="214"/>
     </row>
     <row r="146" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A146" s="195"/>
+      <c r="A146" s="203"/>
       <c r="B146" s="99" t="s">
         <v>277</v>
       </c>
       <c r="C146" s="105" t="s">
         <v>543</v>
       </c>
-      <c r="D146" s="204"/>
-      <c r="E146" s="203"/>
+      <c r="D146" s="215"/>
+      <c r="E146" s="214"/>
     </row>
     <row r="147" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A147" s="195"/>
+      <c r="A147" s="203"/>
       <c r="B147" s="99" t="s">
         <v>278</v>
       </c>
       <c r="C147" s="105" t="s">
         <v>544</v>
       </c>
-      <c r="D147" s="204"/>
-      <c r="E147" s="203"/>
+      <c r="D147" s="215"/>
+      <c r="E147" s="214"/>
     </row>
     <row r="148" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A148" s="195"/>
+      <c r="A148" s="203"/>
       <c r="B148" s="99" t="s">
         <v>279</v>
       </c>
       <c r="C148" s="105" t="s">
         <v>545</v>
       </c>
-      <c r="D148" s="204"/>
-      <c r="E148" s="203"/>
+      <c r="D148" s="215"/>
+      <c r="E148" s="214"/>
     </row>
     <row r="149" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A149" s="195"/>
+      <c r="A149" s="203"/>
       <c r="B149" s="99" t="s">
         <v>280</v>
       </c>
       <c r="C149" s="105" t="s">
         <v>546</v>
       </c>
-      <c r="D149" s="204"/>
-      <c r="E149" s="203"/>
+      <c r="D149" s="215"/>
+      <c r="E149" s="214"/>
     </row>
     <row r="150" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A150" s="195"/>
+      <c r="A150" s="203"/>
       <c r="B150" s="99" t="s">
         <v>281</v>
       </c>
       <c r="C150" s="105" t="s">
         <v>547</v>
       </c>
-      <c r="D150" s="204"/>
-      <c r="E150" s="203"/>
+      <c r="D150" s="215"/>
+      <c r="E150" s="214"/>
     </row>
     <row r="151" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A151" s="195"/>
+      <c r="A151" s="203"/>
       <c r="B151" s="99" t="s">
         <v>282</v>
       </c>
       <c r="C151" s="105" t="s">
         <v>548</v>
       </c>
-      <c r="D151" s="204"/>
-      <c r="E151" s="203"/>
+      <c r="D151" s="215"/>
+      <c r="E151" s="214"/>
     </row>
     <row r="152" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A152" s="195"/>
+      <c r="A152" s="203"/>
       <c r="B152" s="99" t="s">
         <v>283</v>
       </c>
       <c r="C152" s="105" t="s">
         <v>549</v>
       </c>
-      <c r="D152" s="204"/>
-      <c r="E152" s="203"/>
+      <c r="D152" s="215"/>
+      <c r="E152" s="214"/>
     </row>
     <row r="153" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A153" s="195"/>
+      <c r="A153" s="203"/>
       <c r="B153" s="99" t="s">
         <v>284</v>
       </c>
       <c r="C153" s="105" t="s">
         <v>550</v>
       </c>
-      <c r="D153" s="204"/>
-      <c r="E153" s="203"/>
+      <c r="D153" s="215"/>
+      <c r="E153" s="214"/>
     </row>
     <row r="154" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A154" s="195"/>
+      <c r="A154" s="203"/>
       <c r="B154" s="99" t="s">
         <v>285</v>
       </c>
       <c r="C154" s="105" t="s">
         <v>551</v>
       </c>
-      <c r="D154" s="204"/>
-      <c r="E154" s="203"/>
+      <c r="D154" s="215"/>
+      <c r="E154" s="214"/>
     </row>
     <row r="155" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A155" s="195"/>
+      <c r="A155" s="203"/>
       <c r="B155" s="100" t="s">
         <v>286</v>
       </c>
       <c r="C155" s="105" t="s">
         <v>552</v>
       </c>
-      <c r="D155" s="204"/>
-      <c r="E155" s="203"/>
+      <c r="D155" s="215"/>
+      <c r="E155" s="214"/>
     </row>
     <row r="156" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A156" s="195"/>
+      <c r="A156" s="203"/>
       <c r="B156" s="101" t="s">
         <v>72</v>
       </c>
       <c r="C156" s="105" t="s">
         <v>553</v>
       </c>
-      <c r="D156" s="204"/>
-      <c r="E156" s="203"/>
+      <c r="D156" s="215"/>
+      <c r="E156" s="214"/>
     </row>
     <row r="157" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A157" s="195"/>
+      <c r="A157" s="203"/>
       <c r="B157" s="101" t="s">
         <v>73</v>
       </c>
       <c r="C157" s="105" t="s">
         <v>554</v>
       </c>
-      <c r="D157" s="204"/>
-      <c r="E157" s="203"/>
+      <c r="D157" s="215"/>
+      <c r="E157" s="214"/>
     </row>
     <row r="158" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A158" s="195"/>
+      <c r="A158" s="203"/>
       <c r="B158" s="101" t="s">
         <v>74</v>
       </c>
       <c r="C158" s="105" t="s">
         <v>555</v>
       </c>
-      <c r="D158" s="204"/>
-      <c r="E158" s="203"/>
+      <c r="D158" s="215"/>
+      <c r="E158" s="214"/>
     </row>
     <row r="159" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A159" s="195"/>
+      <c r="A159" s="203"/>
       <c r="B159" s="101" t="s">
         <v>75</v>
       </c>
       <c r="C159" s="105" t="s">
         <v>556</v>
       </c>
-      <c r="D159" s="204"/>
-      <c r="E159" s="203"/>
+      <c r="D159" s="215"/>
+      <c r="E159" s="214"/>
     </row>
     <row r="160" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A160" s="196"/>
+      <c r="A160" s="204"/>
       <c r="B160" s="102" t="s">
         <v>76</v>
       </c>
       <c r="C160" s="105" t="s">
         <v>557</v>
       </c>
-      <c r="D160" s="204"/>
-      <c r="E160" s="202"/>
+      <c r="D160" s="215"/>
+      <c r="E160" s="213"/>
     </row>
     <row r="161" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A161" s="18"/>
@@ -78009,11 +78134,6 @@
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="A9:A14"/>
-    <mergeCell ref="A15:A20"/>
-    <mergeCell ref="A21:A23"/>
-    <mergeCell ref="A114:A117"/>
     <mergeCell ref="A119:A141"/>
     <mergeCell ref="A33:A35"/>
     <mergeCell ref="A142:A160"/>
@@ -78021,14 +78141,17 @@
     <mergeCell ref="A40:A69"/>
     <mergeCell ref="A70:A99"/>
     <mergeCell ref="A101:A105"/>
+    <mergeCell ref="A114:A117"/>
+    <mergeCell ref="D4:D7"/>
     <mergeCell ref="C15:C20"/>
     <mergeCell ref="A107:A113"/>
     <mergeCell ref="A24:A26"/>
     <mergeCell ref="A27:A29"/>
     <mergeCell ref="A30:A32"/>
-    <mergeCell ref="D40:D99"/>
-    <mergeCell ref="D101:D105"/>
-    <mergeCell ref="D106:D117"/>
+    <mergeCell ref="A4:A7"/>
+    <mergeCell ref="A9:A14"/>
+    <mergeCell ref="A15:A20"/>
+    <mergeCell ref="A21:A23"/>
     <mergeCell ref="E4:E7"/>
     <mergeCell ref="E40:E99"/>
     <mergeCell ref="E104:E105"/>
@@ -78040,11 +78163,13 @@
     <mergeCell ref="E119:E140"/>
     <mergeCell ref="E141:E160"/>
     <mergeCell ref="E21:E38"/>
-    <mergeCell ref="D4:D7"/>
     <mergeCell ref="D9:D14"/>
     <mergeCell ref="D15:D20"/>
     <mergeCell ref="D21:D38"/>
     <mergeCell ref="D119:D160"/>
+    <mergeCell ref="D40:D99"/>
+    <mergeCell ref="D101:D105"/>
+    <mergeCell ref="D106:D117"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.78740157499999996" right="0.78740157499999996" top="0.984251969" bottom="0.984251969" header="0.4921259845" footer="0.4921259845"/>
@@ -78054,445 +78179,510 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B5:AJ62"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A5:AO60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="16" max="16" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="12.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:41" x14ac:dyDescent="0.25">
       <c r="B5" s="27" t="s">
         <v>739</v>
       </c>
-      <c r="C5" s="205" t="s">
-        <v>714</v>
-      </c>
-      <c r="F5" s="27" t="s">
+      <c r="C5" s="191" t="s">
+        <v>55</v>
+      </c>
+      <c r="K5" s="27" t="s">
         <v>740</v>
       </c>
-      <c r="O5" s="27" t="s">
-        <v>769</v>
-      </c>
-      <c r="Z5" s="27" t="s">
+      <c r="T5" s="27" t="s">
+        <v>775</v>
+      </c>
+      <c r="AE5" s="27" t="s">
         <v>779</v>
       </c>
-      <c r="AI5" s="27" t="s">
+      <c r="AN5" s="27" t="s">
         <v>782</v>
       </c>
     </row>
-    <row r="7" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="B7" s="206" t="s">
+    <row r="7" spans="2:41" x14ac:dyDescent="0.25">
+      <c r="B7" s="192" t="s">
         <v>747</v>
       </c>
-      <c r="C7" s="205">
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="D7" s="207" t="s">
+      <c r="C7" s="191">
+        <v>0.58756200000000003</v>
+      </c>
+      <c r="D7" s="193" t="s">
         <v>748</v>
       </c>
-      <c r="F7" s="27" t="s">
+      <c r="E7" s="193"/>
+      <c r="F7" s="193"/>
+      <c r="G7" s="193"/>
+      <c r="H7" s="193"/>
+      <c r="I7" s="193"/>
+      <c r="K7" s="27" t="s">
         <v>741</v>
       </c>
-      <c r="G7" s="123">
+      <c r="L7" s="123">
         <f>VLOOKUP($C$5,Datatable!$A$5:$FJ$137,7,FALSE)</f>
-        <v>1.2653854200000001</v>
-      </c>
-      <c r="O7" s="27" t="s">
-        <v>771</v>
-      </c>
-      <c r="P7">
-        <f>G14</f>
-        <v>1.5200762126344785</v>
-      </c>
-      <c r="Z7" s="27" t="s">
-        <v>773</v>
-      </c>
-      <c r="AA7">
-        <f>P9</f>
-        <v>1.5204905017410051</v>
-      </c>
-      <c r="AI7" s="27" t="s">
+        <v>1.6684261499999999</v>
+      </c>
+      <c r="T7" s="192" t="s">
+        <v>747</v>
+      </c>
+      <c r="U7">
+        <f>C7</f>
+        <v>0.58756200000000003</v>
+      </c>
+      <c r="AE7" s="193" t="s">
+        <v>780</v>
+      </c>
+      <c r="AF7">
+        <f>U16</f>
+        <v>0</v>
+      </c>
+      <c r="AN7" s="27" t="s">
         <v>783</v>
       </c>
-      <c r="AJ7">
-        <f>AA9</f>
-        <v>1.5204905017410051</v>
+      <c r="AO7">
+        <f>AF9</f>
+        <v>1.7499784287324396</v>
       </c>
     </row>
-    <row r="8" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:41" x14ac:dyDescent="0.25">
       <c r="B8" s="27" t="s">
         <v>752</v>
       </c>
-      <c r="C8" s="205">
+      <c r="C8" s="191">
         <v>20</v>
       </c>
-      <c r="D8" s="206" t="s">
+      <c r="D8" s="192" t="s">
         <v>754</v>
       </c>
-      <c r="F8" s="27" t="s">
+      <c r="E8" s="192"/>
+      <c r="F8" s="192"/>
+      <c r="G8" s="192"/>
+      <c r="H8" s="192"/>
+      <c r="I8" s="192"/>
+      <c r="K8" s="27" t="s">
         <v>742</v>
       </c>
-      <c r="G8" s="123">
+      <c r="L8" s="123">
         <f>VLOOKUP($C$5,Datatable!$A$5:$FJ$137,8,FALSE)</f>
-        <v>1.4419107299999999E-2</v>
-      </c>
-      <c r="O8" s="27" t="s">
-        <v>770</v>
-      </c>
-      <c r="P8">
-        <f>J40</f>
-        <v>1.0002725449573404</v>
-      </c>
-      <c r="Z8" s="207" t="s">
-        <v>780</v>
-      </c>
-      <c r="AA8">
-        <f>P27</f>
-        <v>0</v>
-      </c>
-      <c r="AI8" s="27" t="s">
+        <v>0.29851280299999999</v>
+      </c>
+      <c r="T8" s="27" t="s">
+        <v>761</v>
+      </c>
+      <c r="U8">
+        <f>VLOOKUP($C$5,Datatable!$A$5:$FJ$137,13,FALSE)</f>
+        <v>7.2699999999999999E-6</v>
+      </c>
+      <c r="AE8" s="27" t="s">
+        <v>773</v>
+      </c>
+      <c r="AF8">
+        <f>U28</f>
+        <v>1.7499784287324396</v>
+      </c>
+      <c r="AN8" s="27" t="s">
         <v>784</v>
       </c>
-      <c r="AJ8">
-        <f>J62</f>
-        <v>1.0002725449573404</v>
+      <c r="AO8">
+        <f>O60</f>
+        <v>1.0002724240925422</v>
       </c>
     </row>
-    <row r="9" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:41" x14ac:dyDescent="0.25">
       <c r="B9" s="27" t="s">
         <v>767</v>
       </c>
       <c r="C9">
         <v>20</v>
       </c>
-      <c r="D9" s="206" t="s">
+      <c r="D9" s="192" t="s">
         <v>754</v>
       </c>
-      <c r="F9" s="27" t="s">
+      <c r="E9" s="192"/>
+      <c r="F9" s="192"/>
+      <c r="G9" s="192"/>
+      <c r="H9" s="192"/>
+      <c r="I9" s="192"/>
+      <c r="K9" s="27" t="s">
         <v>743</v>
       </c>
-      <c r="G9" s="123">
+      <c r="L9" s="123">
         <f>VLOOKUP($C$5,Datatable!$A$5:$FJ$137,9,FALSE)</f>
-        <v>1.0032302799999999</v>
-      </c>
-      <c r="O9" s="27" t="s">
-        <v>774</v>
-      </c>
-      <c r="P9" s="213">
-        <f>P7*P8</f>
-        <v>1.5204905017410051</v>
-      </c>
-      <c r="Z9" s="207" t="s">
+        <v>1.0774376000000001</v>
+      </c>
+      <c r="T9" s="27" t="s">
+        <v>762</v>
+      </c>
+      <c r="U9">
+        <f>VLOOKUP($C$5,Datatable!$A$5:$FJ$137,14,FALSE)</f>
+        <v>1.31E-8</v>
+      </c>
+      <c r="AE9" s="193" t="s">
         <v>781</v>
       </c>
-      <c r="AA9" s="213">
-        <f>AA7+AA8</f>
-        <v>1.5204905017410051</v>
-      </c>
-      <c r="AI9" s="27" t="s">
+      <c r="AF9" s="199">
+        <f>AF8+AF7</f>
+        <v>1.7499784287324396</v>
+      </c>
+      <c r="AN9" s="27" t="s">
         <v>785</v>
       </c>
-      <c r="AJ9" s="213">
-        <f>AJ7/AJ8</f>
-        <v>1.5200762126344785</v>
+      <c r="AO9" s="199">
+        <f>AO7/AO8</f>
+        <v>1.7495018222861023</v>
       </c>
     </row>
-    <row r="10" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:41" x14ac:dyDescent="0.25">
       <c r="B10" s="27" t="s">
         <v>753</v>
       </c>
-      <c r="C10" s="205">
+      <c r="C10" s="191">
         <v>101325</v>
       </c>
       <c r="D10" s="27" t="s">
         <v>755</v>
       </c>
-      <c r="F10" s="27" t="s">
+      <c r="E10" s="27"/>
+      <c r="F10" s="27"/>
+      <c r="G10" s="27"/>
+      <c r="H10" s="27"/>
+      <c r="I10" s="27"/>
+      <c r="K10" s="27" t="s">
         <v>744</v>
       </c>
-      <c r="G10" s="123">
+      <c r="L10" s="123">
         <f>VLOOKUP($C$5,Datatable!$A$5:$FJ$137,10,FALSE)</f>
-        <v>8.1310407799999995E-3</v>
+        <v>1.0315999899999999E-2</v>
+      </c>
+      <c r="T10" s="27" t="s">
+        <v>763</v>
+      </c>
+      <c r="U10">
+        <f>VLOOKUP($C$5,Datatable!$A$5:$FJ$137,15,FALSE)</f>
+        <v>-3.3199999999999999E-11</v>
       </c>
     </row>
-    <row r="11" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="F11" s="27" t="s">
+    <row r="11" spans="2:41" x14ac:dyDescent="0.25">
+      <c r="K11" s="27" t="s">
         <v>745</v>
       </c>
-      <c r="G11" s="123">
+      <c r="L11" s="123">
         <f>VLOOKUP($C$5,Datatable!$A$5:$FJ$137,11,FALSE)</f>
-        <v>5.4330322600000001E-2</v>
+        <v>4.6921634800000001E-2</v>
+      </c>
+      <c r="T11" s="27" t="s">
+        <v>764</v>
+      </c>
+      <c r="U11">
+        <f>VLOOKUP($C$5,Datatable!$A$5:$FJ$137,16,FALSE)</f>
+        <v>8.8800000000000001E-7</v>
       </c>
     </row>
-    <row r="12" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:41" x14ac:dyDescent="0.25">
       <c r="B12" s="27" t="s">
         <v>786</v>
       </c>
-      <c r="C12" s="214">
-        <f>AJ9</f>
-        <v>1.5200762126344785</v>
-      </c>
-      <c r="F12" s="27" t="s">
+      <c r="C12" s="201">
+        <f>AO9</f>
+        <v>1.7495018222861023</v>
+      </c>
+      <c r="K12" s="27" t="s">
         <v>746</v>
       </c>
-      <c r="G12" s="123">
+      <c r="L12" s="123">
         <f>VLOOKUP($C$5,Datatable!$A$5:$FJ$137,12,FALSE)</f>
-        <v>102.82116600000001</v>
+        <v>82.507850899999994</v>
+      </c>
+      <c r="T12" s="27" t="s">
+        <v>765</v>
+      </c>
+      <c r="U12">
+        <f>VLOOKUP($C$5,Datatable!$A$5:$FJ$137,17,FALSE)</f>
+        <v>9.3200000000000009E-10</v>
       </c>
     </row>
-    <row r="13" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:41" x14ac:dyDescent="0.25">
       <c r="B13" s="27" t="s">
         <v>788</v>
       </c>
-      <c r="C13" s="214">
-        <f>AA9</f>
-        <v>1.5204905017410051</v>
-      </c>
-      <c r="F13" s="206" t="s">
+      <c r="C13" s="200">
+        <f>AF9</f>
+        <v>1.7499784287324396</v>
+      </c>
+      <c r="K13" s="192" t="s">
         <v>749</v>
       </c>
-      <c r="G13" s="123">
+      <c r="L13" s="123">
         <f>C7^2</f>
-        <v>0.33639999999999998</v>
+        <v>0.34522910384400002</v>
+      </c>
+      <c r="T13" s="192" t="s">
+        <v>766</v>
+      </c>
+      <c r="U13">
+        <f>VLOOKUP($C$5,Datatable!$A$5:$FJ$137,18,FALSE)</f>
+        <v>0.248</v>
       </c>
     </row>
-    <row r="14" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:41" x14ac:dyDescent="0.25">
       <c r="B14" s="27" t="s">
         <v>787</v>
       </c>
-      <c r="C14" s="214">
-        <f>J62</f>
-        <v>1.0002725449573404</v>
-      </c>
-      <c r="F14" s="206" t="s">
+      <c r="C14" s="200">
+        <f>O60</f>
+        <v>1.0002724240925422</v>
+      </c>
+      <c r="K14" s="192" t="s">
         <v>772</v>
       </c>
-      <c r="G14" s="213">
-        <f>SQRT(1+G7*G13/(G13-G10)+G8*G13/(G13-G11)+G9*G13/(G13-G12))</f>
-        <v>1.5200762126344785</v>
-      </c>
-    </row>
-    <row r="15" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="F15" s="206"/>
-    </row>
-    <row r="16" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="F16" s="206"/>
-      <c r="O16" s="27" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="17" spans="6:16" x14ac:dyDescent="0.25">
-      <c r="F17" s="206"/>
-    </row>
-    <row r="18" spans="6:16" x14ac:dyDescent="0.25">
-      <c r="O18" s="206" t="s">
-        <v>747</v>
-      </c>
-      <c r="P18">
-        <f>C7</f>
-        <v>0.57999999999999996</v>
-      </c>
-    </row>
-    <row r="19" spans="6:16" x14ac:dyDescent="0.25">
-      <c r="O19" s="27" t="s">
-        <v>761</v>
-      </c>
-      <c r="P19">
-        <f>VLOOKUP($C$5,Datatable!$A$5:$FJ$137,13,FALSE)</f>
-        <v>1.5200000000000001E-6</v>
-      </c>
-    </row>
-    <row r="20" spans="6:16" x14ac:dyDescent="0.25">
-      <c r="O20" s="27" t="s">
-        <v>762</v>
-      </c>
-      <c r="P20">
-        <f>VLOOKUP($C$5,Datatable!$A$5:$FJ$137,14,FALSE)</f>
-        <v>1.37E-8</v>
-      </c>
-    </row>
-    <row r="21" spans="6:16" x14ac:dyDescent="0.25">
-      <c r="O21" s="27" t="s">
-        <v>763</v>
-      </c>
-      <c r="P21">
-        <f>VLOOKUP($C$5,Datatable!$A$5:$FJ$137,15,FALSE)</f>
-        <v>-1.26E-11</v>
-      </c>
-    </row>
-    <row r="22" spans="6:16" x14ac:dyDescent="0.25">
-      <c r="O22" s="27" t="s">
-        <v>764</v>
-      </c>
-      <c r="P22">
-        <f>VLOOKUP($C$5,Datatable!$A$5:$FJ$137,16,FALSE)</f>
-        <v>4.3599999999999999E-7</v>
-      </c>
-    </row>
-    <row r="23" spans="6:16" x14ac:dyDescent="0.25">
-      <c r="O23" s="27" t="s">
-        <v>765</v>
-      </c>
-      <c r="P23">
-        <f>VLOOKUP($C$5,Datatable!$A$5:$FJ$137,17,FALSE)</f>
-        <v>4.1700000000000001E-10</v>
-      </c>
-    </row>
-    <row r="24" spans="6:16" x14ac:dyDescent="0.25">
-      <c r="O24" s="206" t="s">
-        <v>766</v>
-      </c>
-      <c r="P24">
-        <f>VLOOKUP($C$5,Datatable!$A$5:$FJ$137,18,FALSE)</f>
-        <v>0.19400000000000001</v>
-      </c>
-    </row>
-    <row r="25" spans="6:16" x14ac:dyDescent="0.25">
-      <c r="O25" s="27" t="s">
+      <c r="L14" s="199">
+        <f>SQRT(1+L7*L13/(L13-L10)+L8*L13/(L13-L11)+L9*L13/(L13-L12))</f>
+        <v>1.7495018222861023</v>
+      </c>
+      <c r="T14" s="27" t="s">
         <v>777</v>
       </c>
-      <c r="P25">
+      <c r="U14">
         <f>C8-C9</f>
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="6:16" x14ac:dyDescent="0.25">
-      <c r="O26" s="27" t="s">
+    <row r="15" spans="2:41" x14ac:dyDescent="0.25">
+      <c r="K15" s="192"/>
+      <c r="T15" s="27" t="s">
         <v>772</v>
       </c>
-      <c r="P26">
-        <f>G14</f>
-        <v>1.5200762126344785</v>
+      <c r="U15">
+        <f>L14</f>
+        <v>1.7495018222861023</v>
       </c>
     </row>
-    <row r="27" spans="6:16" x14ac:dyDescent="0.25">
-      <c r="O27" s="207" t="s">
+    <row r="16" spans="2:41" x14ac:dyDescent="0.25">
+      <c r="K16" s="192"/>
+      <c r="T16" s="193" t="s">
         <v>778</v>
       </c>
-      <c r="P27" s="213">
-        <f>((P26^2-1)/(2*P26))*(P19*P25+P20*P25^2+P21*P25^3+(P22*P25+2*P23*P25^2/(P18^2-P24^2)))</f>
+      <c r="U16" s="199">
+        <f>((U15^2-1)/(2*U15))*(U8*U14+U9*U14^2+U10*U14^3+(U11*U14+U12*U14^2/(U7^2-U13^2)))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="9:10" x14ac:dyDescent="0.25">
-      <c r="I34" s="27" t="s">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="K17" s="192"/>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A19" s="217">
+        <v>1</v>
+      </c>
+      <c r="B19" s="217" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>2</v>
+      </c>
+      <c r="B20" s="216" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>3</v>
+      </c>
+      <c r="B21" s="216" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>4</v>
+      </c>
+      <c r="B22" s="216" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>5</v>
+      </c>
+      <c r="B23" s="216" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>6</v>
+      </c>
+      <c r="B24" s="216" t="s">
+        <v>793</v>
+      </c>
+      <c r="T24" s="27" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>7</v>
+      </c>
+      <c r="B25" s="216" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="T26" s="27" t="s">
+        <v>771</v>
+      </c>
+      <c r="U26">
+        <f>L14</f>
+        <v>1.7495018222861023</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="T27" s="27" t="s">
+        <v>770</v>
+      </c>
+      <c r="U27">
+        <f>O40</f>
+        <v>1.0002724240925422</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="T28" s="27" t="s">
+        <v>774</v>
+      </c>
+      <c r="U28" s="199">
+        <f>U26*U27</f>
+        <v>1.7499784287324396</v>
+      </c>
+    </row>
+    <row r="34" spans="14:15" x14ac:dyDescent="0.25">
+      <c r="N34" s="27" t="s">
         <v>776</v>
       </c>
     </row>
-    <row r="36" spans="9:10" x14ac:dyDescent="0.25">
-      <c r="I36" s="27" t="s">
+    <row r="36" spans="14:15" x14ac:dyDescent="0.25">
+      <c r="N36" s="27" t="s">
         <v>757</v>
       </c>
-      <c r="J36">
-        <f>D59</f>
-        <v>1.0002772851955111</v>
+      <c r="O36">
+        <f>I57</f>
+        <v>1.0002771622285718</v>
       </c>
     </row>
-    <row r="37" spans="9:10" x14ac:dyDescent="0.25">
-      <c r="I37" s="27" t="s">
+    <row r="37" spans="14:15" x14ac:dyDescent="0.25">
+      <c r="N37" s="27" t="s">
         <v>758</v>
       </c>
-      <c r="J37" s="209">
+      <c r="O37" s="195">
         <v>101325</v>
       </c>
     </row>
-    <row r="38" spans="9:10" x14ac:dyDescent="0.25">
-      <c r="I38" s="27" t="s">
+    <row r="38" spans="14:15" x14ac:dyDescent="0.25">
+      <c r="N38" s="27" t="s">
         <v>753</v>
       </c>
-      <c r="J38" s="123">
+      <c r="O38" s="123">
         <f>$C$10</f>
         <v>101325</v>
       </c>
     </row>
-    <row r="39" spans="9:10" x14ac:dyDescent="0.25">
-      <c r="I39" s="27" t="s">
+    <row r="39" spans="14:15" x14ac:dyDescent="0.25">
+      <c r="N39" s="27" t="s">
         <v>767</v>
       </c>
-      <c r="J39" s="123">
+      <c r="O39" s="123">
         <f>C9</f>
         <v>20</v>
       </c>
     </row>
-    <row r="40" spans="9:10" x14ac:dyDescent="0.25">
-      <c r="I40" s="27" t="s">
+    <row r="40" spans="14:15" x14ac:dyDescent="0.25">
+      <c r="N40" s="27" t="s">
         <v>768</v>
       </c>
-      <c r="J40" s="213">
-        <f>1+(($J$58-1)/(1+3.4785*10^(-3)*($J$61-15)))*($J$60/$J$59)</f>
-        <v>1.0002725449573404</v>
+      <c r="O40" s="199">
+        <f>1+(($O$56-1)/(1+3.4785*10^(-3)*($O$59-15)))*($O$58/$O$57)</f>
+        <v>1.0002724240925422</v>
       </c>
     </row>
-    <row r="56" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C56" s="27" t="s">
+    <row r="54" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="H54" s="27" t="s">
         <v>750</v>
       </c>
-      <c r="I56" s="27" t="s">
+      <c r="N54" s="27" t="s">
         <v>756</v>
       </c>
     </row>
-    <row r="58" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C58" s="207" t="s">
+    <row r="56" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="H56" s="193" t="s">
         <v>751</v>
       </c>
-      <c r="D58">
+      <c r="I56">
         <f>C7^2</f>
-        <v>0.33639999999999998</v>
-      </c>
-      <c r="I58" s="27" t="s">
+        <v>0.34522910384400002</v>
+      </c>
+      <c r="N56" s="27" t="s">
         <v>757</v>
       </c>
-      <c r="J58">
-        <f>D59</f>
-        <v>1.0002772851955111</v>
+      <c r="O56">
+        <f>I57</f>
+        <v>1.0002771622285718</v>
       </c>
     </row>
-    <row r="59" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C59" s="208" t="s">
+    <row r="57" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="H57" s="194" t="s">
         <v>760</v>
       </c>
-      <c r="D59" s="213">
-        <f>1+10^(-8)*(6432.8+2949810*D58/(146*D58-1)+25540*D58/(41*D58-1))</f>
-        <v>1.0002772851955111</v>
-      </c>
-      <c r="I59" s="27" t="s">
+      <c r="I57" s="199">
+        <f>1+10^(-8)*(6432.8+2949810*I56/(146*I56-1)+25540*I56/(41*I56-1))</f>
+        <v>1.0002771622285718</v>
+      </c>
+      <c r="N57" s="27" t="s">
         <v>758</v>
       </c>
-      <c r="J59" s="209">
+      <c r="O57" s="195">
         <v>101325</v>
       </c>
     </row>
-    <row r="60" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="I60" s="27" t="s">
+    <row r="58" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="N58" s="27" t="s">
         <v>753</v>
       </c>
-      <c r="J60" s="123">
+      <c r="O58" s="123">
         <f>$C$10</f>
         <v>101325</v>
       </c>
     </row>
-    <row r="61" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="I61" s="27" t="s">
+    <row r="59" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="E59" s="123"/>
+      <c r="F59" s="123"/>
+      <c r="G59" s="123"/>
+      <c r="N59" s="27" t="s">
         <v>752</v>
       </c>
-      <c r="J61" s="123">
+      <c r="O59" s="123">
         <f>$C$8</f>
         <v>20</v>
       </c>
     </row>
-    <row r="62" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="I62" s="27" t="s">
+    <row r="60" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="N60" s="27" t="s">
         <v>759</v>
       </c>
-      <c r="J62" s="213">
-        <f>1+(($J$58-1)/(1+3.4785*10^(-3)*($J$61-15)))*($J$60/$J$59)</f>
-        <v>1.0002725449573404</v>
+      <c r="O60" s="199">
+        <f>1+(($O$56-1)/(1+3.4785*10^(-3)*($O$59-15)))*($O$58/$O$57)</f>
+        <v>1.0002724240925422</v>
       </c>
     </row>
   </sheetData>
@@ -78502,7 +78692,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0300-000000000000}">
           <x14:formula1>
             <xm:f>Datatable!$A$5:$A$137</xm:f>
           </x14:formula1>
@@ -78515,43 +78705,43 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<nXeGKudETKPeaCNGFh5ix5fP7fSWtl37NIroXmYBQsS1cecqKZfGozr8W9iy>vDROSGH0q8YAO9yu9t+3mLQZe+N3JD1gGZhnOlBXBx8jPXOm2LH9UUYQJpU6GAr0DshfkbPxKPN5alog6yh+S0WlZzbnRYG3xmVORoTUVe4=</nXeGKudETKPeaCNGFh5ix5fP7fSWtl37NIroXmYBQsS1cecqKZfGozr8W9iy>
+<NovaPath_docClass>Unclassified/Public</NovaPath_docClass>
 </file>
 
 <file path=customXml/item10.xml><?xml version="1.0" encoding="utf-8"?>
+<NovaPath_docOwner>RalfJedamzik</NovaPath_docOwner>
+</file>
+
+<file path=customXml/item11.xml><?xml version="1.0" encoding="utf-8"?>
+<nXeGKudETKPeaCNGFh5ix5fP7fSWtl37NIroXmZyHIynb9qBde2n67FOJFV2>uzHQu98y90vsqJ14OMIlz3bnQfdya8TR+ztgq+Izo1tc0d2ekxzbUxgSm+6Io5/m</nXeGKudETKPeaCNGFh5ix5fP7fSWtl37NIroXmZyHIynb9qBde2n67FOJFV2>
+</file>
+
+<file path=customXml/item12.xml><?xml version="1.0" encoding="utf-8"?>
+<NovaPath_docAuthor>Ralf Jedamzik</NovaPath_docAuthor>
+</file>
+
+<file path=customXml/item13.xml><?xml version="1.0" encoding="utf-8"?>
+<NovaPath_docPath>C:\Users\RalfJedamzik\Documents\2_Applikation\Datenlisteinternet\InternetAktuell\2022-01-24</NovaPath_docPath>
+</file>
+
+<file path=customXml/item14.xml><?xml version="1.0" encoding="utf-8"?>
+<nXeGKudETKPeaCNGFh5iTSI5UodjD94nh7U7VklxY>gwAun2YRTqaeWiZk68+REPm/mzwve+gBXaNoobXvEGRkgtsGVvqMDO8LZFjjaz89+eWDmN61ifDrFNLSq3qABA==</nXeGKudETKPeaCNGFh5iTSI5UodjD94nh7U7VklxY>
+</file>
+
+<file path=customXml/item15.xml><?xml version="1.0" encoding="utf-8"?>
 <nXeGKudETKPeaCNGFh5iKXsadLDxTRe0xbrxgS3asWaSdlBY0sLX5pYu7jLmo>z4vA/M53JO1AgIE0pus7VHi56YLISeQW+JFO4Up6oWDGiSZbS1ocLjRZWHNX8a51Rl0ajeIU3W762a1M0bXvgstyh5X8PGsIdKyw//NEzbU=</nXeGKudETKPeaCNGFh5iKXsadLDxTRe0xbrxgS3asWaSdlBY0sLX5pYu7jLmo>
 </file>
 
-<file path=customXml/item11.xml><?xml version="1.0" encoding="utf-8"?>
-<nXeGKudETKPeaCNGFh5i5JKJLOqxkMZWB6LsYfMaI9RtbpE1WkCpXazESWus5B>swPzbamKyNNuLBKj8zwPTU+kcwbxQGwsM5BgnOWFpB05OJq9gKD551czgYdxVAoY7bwPt/622rGc5RlBb9gNyQ==</nXeGKudETKPeaCNGFh5i5JKJLOqxkMZWB6LsYfMaI9RtbpE1WkCpXazESWus5B>
+<file path=customXml/item16.xml><?xml version="1.0" encoding="utf-8"?>
+<NovaPath_baseApplication>Microsoft Excel</NovaPath_baseApplication>
 </file>
 
-<file path=customXml/item12.xml><?xml version="1.0" encoding="utf-8"?>
-<nXeGKudETKPeaCNGFh5i0BGlH9ci87cLWvMx3DlPzuAPh2gY9s703zKUS7uW>mZ4rtFSXbzk2Ux9ca9oo02ldRRalXdyWr8d+slY8piuSVVFsIOLCldbHO1ATGKbAR4Pnt1sHnTbFdQBWuavwuXaz7qBcXC7Gq/YmFTlIKVm0x9ij0+vHVA1HVZqdkRXs6fYDtRlQuNnaSPnoiUpJqlnqTST7wOl9IrynksTXcSLMVNO5JIT8Gg5Grf2qdX96oC45kjE1TbOmLVuIsXmwxoDLTa8nUMP+89En/Mo/01cAaJfqonAHzVrSKjERoamK</nXeGKudETKPeaCNGFh5i0BGlH9ci87cLWvMx3DlPzuAPh2gY9s703zKUS7uW>
-</file>
-
-<file path=customXml/item13.xml><?xml version="1.0" encoding="utf-8"?>
-<NovaPath_docClass>Unclassified/Public</NovaPath_docClass>
-</file>
-
-<file path=customXml/item14.xml><?xml version="1.0" encoding="utf-8"?>
-<nXeGKudETKPeaCNGFh5i8sltj09I1nJ8AlBUytNZ1Ehih9jnZMZtoeNI9UMZ5>prylMOtUPN5yIKZsVTOO6PZfW+e+044xACIG8oIKLPU=</nXeGKudETKPeaCNGFh5i8sltj09I1nJ8AlBUytNZ1Ehih9jnZMZtoeNI9UMZ5>
-</file>
-
-<file path=customXml/item15.xml><?xml version="1.0" encoding="utf-8"?>
-<NovaPath_tenantID>4E522A55-68B3-4E2C-94BA-CC778668EE0B</NovaPath_tenantID>
-</file>
-
-<file path=customXml/item16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item17.xml><?xml version="1.0" encoding="utf-8"?>
 <nXeGKudETKPeaCNGFh5i7cKyawAjgyQn9gyiebCxx1jD9eHXSWW9Lib2F1j9>mZ4rtFSXbzk2Ux9ca9oo02ldRRalXdyWr8d+slY8piuSVVFsIOLCldbHO1ATGKbAR4Pnt1sHnTbFdQBWuavwuXaz7qBcXC7Gq/YmFTlIKVm0x9ij0+vHVA1HVZqdkRXs6fYDtRlQuNnaSPnoiUpJqlnqTST7wOl9IrynksTXcSLMVNO5JIT8Gg5Grf2qdX96oC45kjE1TbOmLVuIsXmwxoDLTa8nUMP+89En/Mo/01chYT3rIqwRgpGDbBWHOrb+8YmZvkEQQPvT7zJs53YECQIN5fhnpKsBMIzkAcKjj1z1rJRplx2yQ+hTY8Vd4iny+bBhwTDRKixaczefktRuFwibQ0wifh8Rw7no+9eruP0CFPF6HUXr/vEweekESCuMmeEeMeiSxSSNcP8lftr6mg==</nXeGKudETKPeaCNGFh5i7cKyawAjgyQn9gyiebCxx1jD9eHXSWW9Lib2F1j9>
 </file>
 
-<file path=customXml/item17.xml><?xml version="1.0" encoding="utf-8"?>
-<NovaPath_versionInfo>4.3.1.11322</NovaPath_versionInfo>
-</file>
-
 <file path=customXml/item18.xml><?xml version="1.0" encoding="utf-8"?>
-<NovaPath_docClassDate>10/27/2016 12:31:17</NovaPath_docClassDate>
+<nXeGKudETKPeaCNGFh5i5JKJLOqxkMZWB6LsYfMaI9RtbpE1WkCpXazESWus5B>swPzbamKyNNuLBKj8zwPTU+kcwbxQGwsM5BgnOWFpB05OJq9gKD551czgYdxVAoY7bwPt/622rGc5RlBb9gNyQ==</nXeGKudETKPeaCNGFh5i5JKJLOqxkMZWB6LsYfMaI9RtbpE1WkCpXazESWus5B>
 </file>
 
 <file path=customXml/item19.xml><?xml version="1.0" encoding="utf-8"?>
@@ -78559,52 +78749,25 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<nXeGKudETKPeaCNGFh5i5IeuWeXv6XDtePDOrtUSOqWwmvYa7PTRiLQvIZkriN4zFxEJfkpx7yiWurrFRQTw>wET7z3APVwWLb5suGR4vTptv1m9DkTWWxkk+1+Ek1QM=</nXeGKudETKPeaCNGFh5i5IeuWeXv6XDtePDOrtUSOqWwmvYa7PTRiLQvIZkriN4zFxEJfkpx7yiWurrFRQTw>
-</file>
-
-<file path=customXml/item20.xml><?xml version="1.0" encoding="utf-8"?>
-<nXeGKudETKPeaCNGFh5iTSI5UodjD94nh7U7VklxY>gwAun2YRTqaeWiZk68+REPm/mzwve+gBXaNoobXvEGRkgtsGVvqMDO8LZFjjaz89+eWDmN61ifDrFNLSq3qABA==</nXeGKudETKPeaCNGFh5iTSI5UodjD94nh7U7VklxY>
-</file>
-
-<file path=customXml/item21.xml><?xml version="1.0" encoding="utf-8"?>
-<nXeGKudETKPeaCNGFh5iy53cs4YTjZQd4Re9Stbph13fJwq3N1dxRUwfkxNCzGbktJIbKf2q8mQyY814Q>GoBUcRQBOiWNv9cnqy33XA==</nXeGKudETKPeaCNGFh5iy53cs4YTjZQd4Re9Stbph13fJwq3N1dxRUwfkxNCzGbktJIbKf2q8mQyY814Q>
-</file>
-
-<file path=customXml/item22.xml><?xml version="1.0" encoding="utf-8"?>
-<nXeGKudETKPeaCNGFh5ix5fP7fSWtl37NIroXmZyHIynb9qBde2n67FOJFV2>uzHQu98y90vsqJ14OMIlz3bnQfdya8TR+ztgq+Izo1tc0d2ekxzbUxgSm+6Io5/m</nXeGKudETKPeaCNGFh5ix5fP7fSWtl37NIroXmZyHIynb9qBde2n67FOJFV2>
-</file>
-
-<file path=customXml/item23.xml><?xml version="1.0" encoding="utf-8"?>
-<NovaPath_docOwner>RalfJedamzik</NovaPath_docOwner>
-</file>
-
-<file path=customXml/item24.xml><?xml version="1.0" encoding="utf-8"?>
-<nXeGKudETKPeaCNGFh5i2aVdoOsLYjULCdH7T707tDyRRmguot4fEcJ2iD6f9>FTuKWj5MaDKK3nm5G3nbt7EdearQnVTVbfTAAT/u9tg=</nXeGKudETKPeaCNGFh5i2aVdoOsLYjULCdH7T707tDyRRmguot4fEcJ2iD6f9>
-</file>
-
-<file path=customXml/item25.xml><?xml version="1.0" encoding="utf-8"?>
-<NovaPath_baseApplication>Microsoft Excel</NovaPath_baseApplication>
-</file>
-
-<file path=customXml/item26.xml><?xml version="1.0" encoding="utf-8"?>
-<nXeGKudETKPeaCNGFh5iyLk1gcWWJqTgFQk8wGFUmjFC0m6hdwbr2zDsrBNVqK>qI42ReWtNDMURiu1JFC/mA2r+UzzVKpFNQkbPXKOpXw=</nXeGKudETKPeaCNGFh5iyLk1gcWWJqTgFQk8wGFUmjFC0m6hdwbr2zDsrBNVqK>
-</file>
-
-<file path=customXml/item27.xml><?xml version="1.0" encoding="utf-8"?>
-<NovaPath_docID>8J3T6O5B55H4VSUMK5ZX0H1NRU</NovaPath_docID>
-</file>
-
-<file path=customXml/item28.xml><?xml version="1.0" encoding="utf-8"?>
-<NovaPath_docClassID>85833B30A0A94097AF778A115A4505DD</NovaPath_docClassID>
-</file>
-
-<file path=customXml/item29.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
 </p:properties>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item20.xml><?xml version="1.0" encoding="utf-8"?>
+<nXeGKudETKPeaCNGFh5ix5fP7fSWtl37NIroXmZN38TajkfZeW3Vf6bvmNn8>QPGT1w2+A5RkRZ2b7BaC1v7q+saOSr5ohp6+GL7fdKFYBZHZZSP77Jq3vjM3WAXw</nXeGKudETKPeaCNGFh5ix5fP7fSWtl37NIroXmZN38TajkfZeW3Vf6bvmNn8>
+</file>
+
+<file path=customXml/item21.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item22.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010057AC9E78298DEC43AA400059A88E135D" ma:contentTypeVersion="1" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="040ef88024f096f3449b4803a53d6259">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="a198ae64-0624-4c5b-9bed-76ef1430b70b" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e5a225e3284567146d45160458edb924" ns2:_="">
     <xsd:import namespace="a198ae64-0624-4c5b-9bed-76ef1430b70b"/>
@@ -78744,91 +78907,118 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item23.xml><?xml version="1.0" encoding="utf-8"?>
+<NovaPath_tenantID>4E522A55-68B3-4E2C-94BA-CC778668EE0B</NovaPath_tenantID>
+</file>
+
+<file path=customXml/item24.xml><?xml version="1.0" encoding="utf-8"?>
+<nXeGKudETKPeaCNGFh5i8sltj09I1nJ8AlBUytNZ1Ehih9jnZMZtoeNI9UMZ5>prylMOtUPN5yIKZsVTOO6PZfW+e+044xACIG8oIKLPU=</nXeGKudETKPeaCNGFh5i8sltj09I1nJ8AlBUytNZ1Ehih9jnZMZtoeNI9UMZ5>
+</file>
+
+<file path=customXml/item25.xml><?xml version="1.0" encoding="utf-8"?>
+<nXeGKudETKPeaCNGFh5i5IeuWeXv6XDtePDOrtUSOqWwmvYa7PTRiLQvIZkriN4zFxEJfkpx7yiWurrFRQTw>wET7z3APVwWLb5suGR4vTptv1m9DkTWWxkk+1+Ek1QM=</nXeGKudETKPeaCNGFh5i5IeuWeXv6XDtePDOrtUSOqWwmvYa7PTRiLQvIZkriN4zFxEJfkpx7yiWurrFRQTw>
+</file>
+
+<file path=customXml/item26.xml><?xml version="1.0" encoding="utf-8"?>
+<nXeGKudETKPeaCNGFh5iyLk1gcWWJqTgFQk8wGFUmjFC0m6hdwbr2zDsrBNVqK>qI42ReWtNDMURiu1JFC/mA2r+UzzVKpFNQkbPXKOpXw=</nXeGKudETKPeaCNGFh5iyLk1gcWWJqTgFQk8wGFUmjFC0m6hdwbr2zDsrBNVqK>
+</file>
+
+<file path=customXml/item27.xml><?xml version="1.0" encoding="utf-8"?>
+<nXeGKudETKPeaCNGFh5iy53cs4YTjZQd4Re9Stbph13fJwq3N1dxRUwfkxNCzGbktJIbKf2q8mQyY814Q>GoBUcRQBOiWNv9cnqy33XA==</nXeGKudETKPeaCNGFh5iy53cs4YTjZQd4Re9Stbph13fJwq3N1dxRUwfkxNCzGbktJIbKf2q8mQyY814Q>
+</file>
+
+<file path=customXml/item28.xml><?xml version="1.0" encoding="utf-8"?>
+<NovaPath_docIDOld>RRL37QT3987D5RN5JWKJFG9OK9</NovaPath_docIDOld>
+</file>
+
+<file path=customXml/item29.xml><?xml version="1.0" encoding="utf-8"?>
+<NovaPath_docName>C:\Users\RalfJedamzik\Documents\2_Applikation\Datenlisteinternet\InternetAktuell\2022-01-24\schott_optical_glass_catalogue_excel_January_2022.xls</NovaPath_docName>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<NovaPath_docClassID>85833B30A0A94097AF778A115A4505DD</NovaPath_docClassID>
+</file>
+
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<NovaPath_docID>8J3T6O5B55H4VSUMK5ZX0H1NRU</NovaPath_docID>
 </file>
 
 <file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
-<nXeGKudETKPeaCNGFh5ix5fP7fSWtl37NIroXmZN38TajkfZeW3Vf6bvmNn8>QPGT1w2+A5RkRZ2b7BaC1v7q+saOSr5ohp6+GL7fdKFYBZHZZSP77Jq3vjM3WAXw</nXeGKudETKPeaCNGFh5ix5fP7fSWtl37NIroXmZN38TajkfZeW3Vf6bvmNn8>
+<nXeGKudETKPeaCNGFh5i0BGlH9ci87cLWvMx3DlPzuAPh2gY9s703zKUS7uW>mZ4rtFSXbzk2Ux9ca9oo02ldRRalXdyWr8d+slY8piuSVVFsIOLCldbHO1ATGKbAR4Pnt1sHnTbFdQBWuavwuXaz7qBcXC7Gq/YmFTlIKVm0x9ij0+vHVA1HVZqdkRXs6fYDtRlQuNnaSPnoiUpJqlnqTST7wOl9IrynksTXcSLMVNO5JIT8Gg5Grf2qdX96oC45kjE1TbOmLVuIsXmwxoDLTa8nUMP+89En/Mo/01cAaJfqonAHzVrSKjERoamK</nXeGKudETKPeaCNGFh5i0BGlH9ci87cLWvMx3DlPzuAPh2gY9s703zKUS7uW>
 </file>
 
 <file path=customXml/item6.xml><?xml version="1.0" encoding="utf-8"?>
-<NovaPath_docName>C:\Users\RalfJedamzik\Documents\2_Applikation\Datenlisteinternet\InternetAktuell\2022-01-24\schott_optical_glass_catalogue_excel_January_2022.xls</NovaPath_docName>
+<nXeGKudETKPeaCNGFh5ix5fP7fSWtl37NIroXmYBQsS1cecqKZfGozr8W9iy>vDROSGH0q8YAO9yu9t+3mLQZe+N3JD1gGZhnOlBXBx8jPXOm2LH9UUYQJpU6GAr0DshfkbPxKPN5alog6yh+S0WlZzbnRYG3xmVORoTUVe4=</nXeGKudETKPeaCNGFh5ix5fP7fSWtl37NIroXmYBQsS1cecqKZfGozr8W9iy>
 </file>
 
 <file path=customXml/item7.xml><?xml version="1.0" encoding="utf-8"?>
-<NovaPath_docIDOld>RRL37QT3987D5RN5JWKJFG9OK9</NovaPath_docIDOld>
+<NovaPath_docClassDate>10/27/2016 12:31:17</NovaPath_docClassDate>
 </file>
 
 <file path=customXml/item8.xml><?xml version="1.0" encoding="utf-8"?>
-<NovaPath_docPath>C:\Users\RalfJedamzik\Documents\2_Applikation\Datenlisteinternet\InternetAktuell\2022-01-24</NovaPath_docPath>
+<NovaPath_versionInfo>4.3.1.11322</NovaPath_versionInfo>
 </file>
 
 <file path=customXml/item9.xml><?xml version="1.0" encoding="utf-8"?>
-<NovaPath_docAuthor>Ralf Jedamzik</NovaPath_docAuthor>
+<nXeGKudETKPeaCNGFh5i2aVdoOsLYjULCdH7T707tDyRRmguot4fEcJ2iD6f9>FTuKWj5MaDKK3nm5G3nbt7EdearQnVTVbfTAAT/u9tg=</nXeGKudETKPeaCNGFh5i2aVdoOsLYjULCdH7T707tDyRRmguot4fEcJ2iD6f9>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6FEC0D68-A549-457E-A2CD-464C2D515D0F}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F5901A9F-4EEF-41D3-868F-51AC88B084C0}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps10.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{90E4F0EB-F876-4DB9-85CA-3EA363680EE6}">
+  <ds:schemaRefs/>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps11.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{33234EDF-9EBD-40B3-847D-350A357E6B25}">
+  <ds:schemaRefs/>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps12.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C9EB7162-D3E9-40AD-8379-C1F34FE17E61}">
+  <ds:schemaRefs/>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps13.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7D3EDD60-9EC6-4A04-8DBC-7BCC28C1B1A4}">
+  <ds:schemaRefs/>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps14.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E1272ACF-B717-4337-86C1-10C0A63EEF20}">
+  <ds:schemaRefs/>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps15.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1F35EB62-06B7-4A98-A131-E1FB1B29D1F7}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps11.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2E04E963-81F1-4A3B-A8DC-4032114B957F}">
+<file path=customXml/itemProps16.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{16409AF1-A5D8-4D1A-85AA-7BE1ABAE7C2E}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps12.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D2209F67-86CD-4703-BC81-27C5677BED51}">
-  <ds:schemaRefs/>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps13.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F5901A9F-4EEF-41D3-868F-51AC88B084C0}">
-  <ds:schemaRefs/>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps14.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E6AA2DA3-6B51-43E5-A6F7-F7D404DC06ED}">
-  <ds:schemaRefs/>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps15.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{612572A9-7910-4829-A9E1-21793D12CFC6}">
-  <ds:schemaRefs/>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps17.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{94C4C1AB-A980-48D1-99BA-1E65C8D7746B}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps17.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5253BCB0-19BB-4F75-8A98-747BA4928EF6}">
-  <ds:schemaRefs/>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps18.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EBF670B4-F15E-4E7B-B3FF-B709685CC336}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2E04E963-81F1-4A3B-A8DC-4032114B957F}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
@@ -78840,66 +79030,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CAF7C15-20FD-45D3-8F0E-97ABFD7B1C0F}">
-  <ds:schemaRefs/>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps20.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E1272ACF-B717-4337-86C1-10C0A63EEF20}">
-  <ds:schemaRefs/>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps21.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CE2E67DC-1875-409A-BE4C-EEDB46F510E5}">
-  <ds:schemaRefs/>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps22.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{33234EDF-9EBD-40B3-847D-350A357E6B25}">
-  <ds:schemaRefs/>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps23.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{90E4F0EB-F876-4DB9-85CA-3EA363680EE6}">
-  <ds:schemaRefs/>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps24.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A631E7F0-0605-468F-975D-DE894546CB12}">
-  <ds:schemaRefs/>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps25.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{16409AF1-A5D8-4D1A-85AA-7BE1ABAE7C2E}">
-  <ds:schemaRefs/>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps26.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1FD94FF6-0601-47A9-B3BD-6BEAF61DE0F0}">
-  <ds:schemaRefs/>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps27.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2B6BB2FC-3F55-45CD-B80F-44420E337778}">
-  <ds:schemaRefs/>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps28.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A3E0DFF-1B4D-4C71-B17D-773EDA1E7E01}">
-  <ds:schemaRefs/>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps29.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6AB932BD-16D5-4941-9B4C-144BE17BA175}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -78908,7 +79038,21 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps20.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C8353E24-4A4A-49DB-8BA9-08F96ACB5594}">
+  <ds:schemaRefs/>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps21.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{08C1D523-1C06-4748-88BC-2758A193F358}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps22.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FB288E18-393B-4A4D-9536-B270DDD72969}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -78926,40 +79070,86 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps23.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{612572A9-7910-4829-A9E1-21793D12CFC6}">
+  <ds:schemaRefs/>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps24.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E6AA2DA3-6B51-43E5-A6F7-F7D404DC06ED}">
+  <ds:schemaRefs/>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps25.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CAF7C15-20FD-45D3-8F0E-97ABFD7B1C0F}">
+  <ds:schemaRefs/>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps26.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1FD94FF6-0601-47A9-B3BD-6BEAF61DE0F0}">
+  <ds:schemaRefs/>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps27.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CE2E67DC-1875-409A-BE4C-EEDB46F510E5}">
+  <ds:schemaRefs/>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps28.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7E596433-3956-4551-AB6A-EE70B0A6F962}">
+  <ds:schemaRefs/>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps29.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{788DE330-8202-4E71-B376-ADFDF558F444}">
+  <ds:schemaRefs/>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A3E0DFF-1B4D-4C71-B17D-773EDA1E7E01}">
+  <ds:schemaRefs/>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{08C1D523-1C06-4748-88BC-2758A193F358}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2B6BB2FC-3F55-45CD-B80F-44420E337778}">
+  <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C8353E24-4A4A-49DB-8BA9-08F96ACB5594}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D2209F67-86CD-4703-BC81-27C5677BED51}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps6.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{788DE330-8202-4E71-B376-ADFDF558F444}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6FEC0D68-A549-457E-A2CD-464C2D515D0F}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps7.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7E596433-3956-4551-AB6A-EE70B0A6F962}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EBF670B4-F15E-4E7B-B3FF-B709685CC336}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps8.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7D3EDD60-9EC6-4A04-8DBC-7BCC28C1B1A4}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5253BCB0-19BB-4F75-8A98-747BA4928EF6}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps9.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C9EB7162-D3E9-40AD-8379-C1F34FE17E61}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A631E7F0-0605-468F-975D-DE894546CB12}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>